--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/18_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/18_245-70R19.xlsx
@@ -692,34 +692,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1237204684060884</v>
+        <v>0.1168300517728939</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.006412139575184506</v>
       </c>
       <c r="G2">
-        <v>0.4456220838801876</v>
+        <v>0.4041077969875829</v>
       </c>
       <c r="H2">
-        <v>0.1554202831739369</v>
+        <v>0.1451202214162442</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01685728373759012</v>
+        <v>0.02146111523365722</v>
       </c>
       <c r="K2">
-        <v>0.02704785073528512</v>
+        <v>0.0305555806505063</v>
       </c>
       <c r="L2">
-        <v>0.08083482865667004</v>
+        <v>0.07855720908722658</v>
       </c>
       <c r="M2">
-        <v>0.01669810175818519</v>
+        <v>0.02131905493347852</v>
       </c>
       <c r="N2">
-        <v>0.07700646557899593</v>
+        <v>0.07514062631799263</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -728,31 +728,31 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001277348577635797</v>
       </c>
       <c r="R2">
-        <v>0.007509608052988468</v>
+        <v>0.01311887939331983</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.02546205982046139</v>
+        <v>0.02914035805921379</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.003194849288557902</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.004674751752927405</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.006395915891231194</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -761,25 +761,25 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02382096619961072</v>
+        <v>0.02767578114371792</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.002992306233381891</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.001511697728292608</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.005718920546032767</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.00479539541092202</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -802,37 +802,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2787814649009919</v>
+        <v>0.2615242862487356</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.002644842208628682</v>
       </c>
       <c r="G3">
-        <v>0.379346472336011</v>
+        <v>0.3541565285509545</v>
       </c>
       <c r="H3">
-        <v>0.05424362000115154</v>
+        <v>0.05469842718220351</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00582739201085851</v>
+        <v>0.0101013662666137</v>
       </c>
       <c r="K3">
-        <v>0.07002686958089174</v>
+        <v>0.0692366630624285</v>
       </c>
       <c r="L3">
-        <v>0.03801578027060478</v>
+        <v>0.03975067129472051</v>
       </c>
       <c r="M3">
-        <v>0.05076961985217018</v>
+        <v>0.05149846298226725</v>
       </c>
       <c r="N3">
-        <v>0.03374242251043722</v>
+        <v>0.03581440438060835</v>
       </c>
       <c r="O3">
-        <v>0.01687755034502457</v>
+        <v>0.02027986642681863</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01748273514782861</v>
+        <v>0.02083731306477754</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.005656569561145065</v>
+        <v>0.009944018626951476</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01183638337962496</v>
+        <v>0.01563635660431326</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.007449212475846418</v>
+        <v>0.0115952543507023</v>
       </c>
       <c r="Y3">
-        <v>0.01427905087743306</v>
+        <v>0.01788634169646293</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01566485674998008</v>
+        <v>0.01916283248231169</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.0008780526431924011</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.004354311927309397</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001714494602450862</v>
+        <v>0.007897709559948903</v>
       </c>
       <c r="E4">
-        <v>0.2551265672837331</v>
+        <v>0.2363162828426543</v>
       </c>
       <c r="F4">
-        <v>0.2154288682764892</v>
+        <v>0.2005338843408851</v>
       </c>
       <c r="G4">
-        <v>0.2411969333968549</v>
+        <v>0.2237604994297902</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -927,22 +927,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0003726975541769644</v>
       </c>
       <c r="K4">
-        <v>0.09639365453309245</v>
+        <v>0.09323886320799146</v>
       </c>
       <c r="L4">
-        <v>0.02040602887623578</v>
+        <v>0.02474573714643451</v>
       </c>
       <c r="M4">
-        <v>0.09424572932767201</v>
+        <v>0.09130278334506733</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01123145274165671</v>
+        <v>0.01647603014723479</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,37 +951,37 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01577449076726763</v>
+        <v>0.02057099789363835</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.005076455020180041</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01530881820383216</v>
+        <v>0.02015125363508201</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.002642637798818368</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4.811226274378505E-05</v>
       </c>
       <c r="X4">
-        <v>0.02230426136995108</v>
+        <v>0.02645675096430676</v>
       </c>
       <c r="Y4">
-        <v>0.006720623105210893</v>
+        <v>0.01241009414435862</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001426484502504124</v>
+        <v>0.00763810529001507</v>
       </c>
       <c r="AB4">
-        <v>0.002721593013048926</v>
+        <v>0.008805479973844739</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.0007259308947493889</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0008296945480791385</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1022,34 +1022,34 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06703230525802782</v>
+        <v>0.0657680957108055</v>
       </c>
       <c r="F5">
-        <v>0.1023731790348799</v>
+        <v>0.09645068737257369</v>
       </c>
       <c r="G5">
-        <v>0.2794569729697763</v>
+        <v>0.2501930586995653</v>
       </c>
       <c r="H5">
-        <v>0.2728390212949439</v>
+        <v>0.2444474195238526</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005391521636538587</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.003002378502997111</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09433318493493846</v>
+        <v>0.08947044524587487</v>
       </c>
       <c r="M5">
-        <v>0.04305210067836614</v>
+        <v>0.04494872294347601</v>
       </c>
       <c r="N5">
-        <v>0.1122594509362769</v>
+        <v>0.105033849343132</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1058,43 +1058,43 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001142684794423614</v>
+        <v>0.008563388996456403</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.007283059331490171</v>
       </c>
       <c r="T5">
-        <v>0.004859654624338767</v>
+        <v>0.01179042487085229</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.165736365832169E-05</v>
       </c>
       <c r="V5">
-        <v>0.004083201743710534</v>
+        <v>0.01111631627831025</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.001825613910651589</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.001953012888877196</v>
       </c>
       <c r="Y5">
-        <v>0.01237868771192732</v>
+        <v>0.01831837387897536</v>
       </c>
       <c r="Z5">
-        <v>0.00240964062922797</v>
+        <v>0.009663347327375161</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002539006728323168</v>
+        <v>0.009775661675302055</v>
       </c>
       <c r="AC5">
-        <v>0.00124090866083899</v>
+        <v>0.008648665970752298</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.006344298528483383</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.337741437284348</v>
+        <v>0.3417535508311725</v>
       </c>
       <c r="F6">
-        <v>0.01726272788531873</v>
+        <v>0.01653151187580416</v>
       </c>
       <c r="G6">
-        <v>0.3608615291586841</v>
+        <v>0.3652158377154001</v>
       </c>
       <c r="H6">
-        <v>0.0272853508974509</v>
+        <v>0.02670247735990473</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.003397632191675581</v>
+        <v>0.002461202181117225</v>
       </c>
       <c r="K6">
-        <v>0.02325093387103951</v>
+        <v>0.02260834788158081</v>
       </c>
       <c r="L6">
-        <v>0.1180361709232703</v>
+        <v>0.1187964788023546</v>
       </c>
       <c r="M6">
-        <v>0.05982802414850919</v>
+        <v>0.05972680701853995</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1165,22 +1165,22 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001406457561595064</v>
+        <v>0.0004405566464252768</v>
       </c>
       <c r="Q6">
-        <v>0.002042495262617118</v>
+        <v>0.001086008190981154</v>
       </c>
       <c r="R6">
-        <v>0.0009723263879604468</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.01472920304425142</v>
+        <v>0.01396048893296626</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.005523426988508213</v>
+        <v>0.004618460363799845</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01591163796458753</v>
+        <v>0.01516042479280813</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01175064643018398</v>
+        <v>0.01093784740714531</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2379579508570492</v>
+        <v>0.2658173548232608</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3714560867187034</v>
+        <v>0.4231874134541215</v>
       </c>
       <c r="H7">
-        <v>0.1015453099748059</v>
+        <v>0.1050116240535372</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.03633081297242107</v>
+        <v>0.02813557518134273</v>
       </c>
       <c r="L7">
-        <v>0.02567735535460396</v>
+        <v>0.01557708334086728</v>
       </c>
       <c r="M7">
-        <v>0.02508021407300724</v>
+        <v>0.01487316221201221</v>
       </c>
       <c r="N7">
-        <v>0.07987118860336875</v>
+        <v>0.0794617710239026</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01662308662485612</v>
+        <v>0.004903744783266766</v>
       </c>
       <c r="R7">
-        <v>0.0124632051772486</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.02456599222659324</v>
+        <v>0.01426698803888891</v>
       </c>
       <c r="T7">
-        <v>0.00176047278572517</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02220552149544759</v>
+        <v>0.01148442171345514</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.04408882405434105</v>
+        <v>0.03728086137534491</v>
       </c>
       <c r="Z7">
-        <v>0.0003739790818285492</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1352,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.349923463757061</v>
+        <v>0.3777573892636171</v>
       </c>
       <c r="F8">
-        <v>0.00434076149468151</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3041955339751516</v>
+        <v>0.3272165029788788</v>
       </c>
       <c r="H8">
-        <v>0.06817574033428866</v>
+        <v>0.06635515176001427</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1370,49 +1370,49 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.04969444468443666</v>
+        <v>0.04592866260363605</v>
       </c>
       <c r="L8">
-        <v>0.02888738686686946</v>
+        <v>0.02293162013761852</v>
       </c>
       <c r="M8">
-        <v>0.07490585039949012</v>
+        <v>0.07379361943417709</v>
       </c>
       <c r="N8">
-        <v>0.008139521276805834</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01966365110694449</v>
+        <v>0.0127370676532577</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.04199568373996429</v>
+        <v>0.03741959159859142</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0003692305707527173</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0009842430793891082</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.01427797096759683</v>
+        <v>0.006784533856365194</v>
       </c>
       <c r="Y8">
-        <v>0.03444651774656753</v>
+        <v>0.029075860713844</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1462,46 +1462,46 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1019221770125612</v>
+        <v>0.1077155664586609</v>
       </c>
       <c r="F9">
-        <v>0.0295111675600163</v>
+        <v>0.0235012235245824</v>
       </c>
       <c r="G9">
-        <v>0.1302559303697229</v>
+        <v>0.1406678542374049</v>
       </c>
       <c r="H9">
-        <v>0.1327585283055871</v>
+        <v>0.1435783873509518</v>
       </c>
       <c r="I9">
-        <v>0.1910856769727926</v>
+        <v>0.2114131342680781</v>
       </c>
       <c r="J9">
-        <v>0.02117904253927248</v>
+        <v>0.01381092312452528</v>
       </c>
       <c r="K9">
-        <v>0.008405136295823385</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.025663685958011</v>
+        <v>0.01902658441219471</v>
       </c>
       <c r="N9">
-        <v>0.2025460065624899</v>
+        <v>0.2247415512242985</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.01320610812211459</v>
+        <v>0.004538363077734567</v>
       </c>
       <c r="Q9">
-        <v>0.05355135036719368</v>
+        <v>0.0514600686563902</v>
       </c>
       <c r="R9">
-        <v>0.009303833993132041</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1519,22 +1519,22 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.04203101984770399</v>
+        <v>0.03806187033796946</v>
       </c>
       <c r="Y9">
-        <v>0.004654313982872305</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.006148940604412963</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.02777708150629356</v>
+        <v>0.02148447332720924</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3201795407324449</v>
+        <v>0.315941936158867</v>
       </c>
       <c r="F10">
-        <v>0.1679312232837177</v>
+        <v>0.1665076235975439</v>
       </c>
       <c r="G10">
-        <v>0.2732931678323258</v>
+        <v>0.2699221638537792</v>
       </c>
       <c r="H10">
-        <v>0.01249540468086713</v>
+        <v>0.01394472444993394</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.06454723096544297</v>
+        <v>0.0650344770904944</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.06287125088940963</v>
+        <v>0.06338947414579611</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.02322158900112769</v>
+        <v>0.02447265675922843</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.04270338215589137</v>
+        <v>0.04359436802887463</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0009338202092045568</v>
+        <v>0.002596832686043667</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02783904298201583</v>
+        <v>0.02900476636135876</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.003984347267552482</v>
+        <v>0.005590976868080065</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1682,34 +1682,34 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2850626645025323</v>
+        <v>0.3451730267012569</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3306256216543372</v>
+        <v>0.4040546404243249</v>
       </c>
       <c r="H11">
-        <v>0.04330614328946895</v>
+        <v>0.03274786848177207</v>
       </c>
       <c r="I11">
-        <v>0.01170774204058315</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.03630860723480373</v>
+        <v>0.02370485984624245</v>
       </c>
       <c r="L11">
-        <v>0.0389510972510471</v>
+        <v>0.02711978473544803</v>
       </c>
       <c r="M11">
-        <v>0.0168640287847347</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.08864687842090992</v>
+        <v>0.09134230174110854</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01796563996247926</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.0237086692362331</v>
+        <v>0.00742179288694499</v>
       </c>
       <c r="S11">
-        <v>0.02304580330650536</v>
+        <v>0.006565162455904903</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.03166998657474341</v>
+        <v>0.01771030885598272</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.05213711774162162</v>
+        <v>0.04416025387101444</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1915,100 +1915,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1237204684060884</v>
+        <v>0.1168300517728939</v>
       </c>
       <c r="F2">
-        <v>0.1237204684060884</v>
+        <v>0.1232421913480784</v>
       </c>
       <c r="G2">
-        <v>0.5693425522862761</v>
+        <v>0.5273499883356613</v>
       </c>
       <c r="H2">
-        <v>0.7247628354602129</v>
+        <v>0.6724702097519055</v>
       </c>
       <c r="I2">
-        <v>0.7247628354602129</v>
+        <v>0.6724702097519055</v>
       </c>
       <c r="J2">
-        <v>0.741620119197803</v>
+        <v>0.6939313249855628</v>
       </c>
       <c r="K2">
-        <v>0.7686679699330882</v>
+        <v>0.7244869056360691</v>
       </c>
       <c r="L2">
-        <v>0.8495027985897582</v>
+        <v>0.8030441147232956</v>
       </c>
       <c r="M2">
-        <v>0.8662009003479434</v>
+        <v>0.8243631696567741</v>
       </c>
       <c r="N2">
-        <v>0.9432073659269393</v>
+        <v>0.8995037959747668</v>
       </c>
       <c r="O2">
-        <v>0.9432073659269393</v>
+        <v>0.8995037959747668</v>
       </c>
       <c r="P2">
-        <v>0.9432073659269393</v>
+        <v>0.8995037959747668</v>
       </c>
       <c r="Q2">
-        <v>0.9432073659269393</v>
+        <v>0.9007811445524027</v>
       </c>
       <c r="R2">
-        <v>0.9507169739799278</v>
+        <v>0.9139000239457225</v>
       </c>
       <c r="S2">
-        <v>0.9507169739799278</v>
+        <v>0.9139000239457225</v>
       </c>
       <c r="T2">
-        <v>0.9761790338003892</v>
+        <v>0.9430403820049362</v>
       </c>
       <c r="U2">
-        <v>0.9761790338003892</v>
+        <v>0.9430403820049362</v>
       </c>
       <c r="V2">
-        <v>0.9761790338003892</v>
+        <v>0.9462352312934942</v>
       </c>
       <c r="W2">
-        <v>0.9761790338003892</v>
+        <v>0.9462352312934942</v>
       </c>
       <c r="X2">
-        <v>0.9761790338003892</v>
+        <v>0.9509099830464216</v>
       </c>
       <c r="Y2">
-        <v>0.9761790338003892</v>
+        <v>0.9573058989376528</v>
       </c>
       <c r="Z2">
-        <v>0.9761790338003892</v>
+        <v>0.9573058989376528</v>
       </c>
       <c r="AA2">
-        <v>0.9761790338003892</v>
+        <v>0.9573058989376528</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9849816800813708</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9879739863147526</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>0.9894856840430453</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9894856840430453</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.995204604589078</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.995204604589078</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2787814649009919</v>
+        <v>0.2615242862487356</v>
       </c>
       <c r="F3">
-        <v>0.2787814649009919</v>
+        <v>0.2641691284573643</v>
       </c>
       <c r="G3">
-        <v>0.6581279372370029</v>
+        <v>0.6183256570083189</v>
       </c>
       <c r="H3">
-        <v>0.7123715572381545</v>
+        <v>0.6730240841905224</v>
       </c>
       <c r="I3">
-        <v>0.7123715572381545</v>
+        <v>0.6730240841905224</v>
       </c>
       <c r="J3">
-        <v>0.718198949249013</v>
+        <v>0.6831254504571361</v>
       </c>
       <c r="K3">
-        <v>0.7882258188299047</v>
+        <v>0.7523621135195646</v>
       </c>
       <c r="L3">
-        <v>0.8262415991005095</v>
+        <v>0.7921127848142852</v>
       </c>
       <c r="M3">
-        <v>0.8770112189526797</v>
+        <v>0.8436112477965524</v>
       </c>
       <c r="N3">
-        <v>0.910753641463117</v>
+        <v>0.8794256521771607</v>
       </c>
       <c r="O3">
-        <v>0.9276311918081416</v>
+        <v>0.8997055186039794</v>
       </c>
       <c r="P3">
-        <v>0.9276311918081416</v>
+        <v>0.8997055186039794</v>
       </c>
       <c r="Q3">
-        <v>0.9276311918081416</v>
+        <v>0.8997055186039794</v>
       </c>
       <c r="R3">
-        <v>0.9451139269559702</v>
+        <v>0.9205428316687569</v>
       </c>
       <c r="S3">
-        <v>0.9451139269559702</v>
+        <v>0.9205428316687569</v>
       </c>
       <c r="T3">
-        <v>0.9507704965171152</v>
+        <v>0.9304868502957084</v>
       </c>
       <c r="U3">
-        <v>0.9507704965171152</v>
+        <v>0.9304868502957084</v>
       </c>
       <c r="V3">
-        <v>0.9626068798967402</v>
+        <v>0.9461232069000217</v>
       </c>
       <c r="W3">
-        <v>0.9626068798967402</v>
+        <v>0.9461232069000217</v>
       </c>
       <c r="X3">
-        <v>0.9700560923725866</v>
+        <v>0.957718461250724</v>
       </c>
       <c r="Y3">
-        <v>0.9843351432500197</v>
+        <v>0.975604802947187</v>
       </c>
       <c r="Z3">
-        <v>0.9843351432500197</v>
+        <v>0.975604802947187</v>
       </c>
       <c r="AA3">
-        <v>0.9843351432500197</v>
+        <v>0.975604802947187</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999998</v>
+        <v>0.9947676354294986</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999998</v>
+        <v>0.9947676354294986</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999998</v>
+        <v>0.9947676354294986</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999998</v>
+        <v>0.9947676354294986</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>0.995645688072691</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>0.995645688072691</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001714494602450862</v>
+        <v>0.007897709559948903</v>
       </c>
       <c r="E4">
-        <v>0.256841061886184</v>
+        <v>0.2442139924026032</v>
       </c>
       <c r="F4">
-        <v>0.4722699301626732</v>
+        <v>0.4447478767434884</v>
       </c>
       <c r="G4">
-        <v>0.713466863559528</v>
+        <v>0.6685083761732786</v>
       </c>
       <c r="H4">
-        <v>0.713466863559528</v>
+        <v>0.6685083761732786</v>
       </c>
       <c r="I4">
-        <v>0.713466863559528</v>
+        <v>0.6685083761732786</v>
       </c>
       <c r="J4">
-        <v>0.713466863559528</v>
+        <v>0.6688810737274556</v>
       </c>
       <c r="K4">
-        <v>0.8098605180926205</v>
+        <v>0.7621199369354471</v>
       </c>
       <c r="L4">
-        <v>0.8302665469688563</v>
+        <v>0.7868656740818816</v>
       </c>
       <c r="M4">
-        <v>0.9245122762965283</v>
+        <v>0.8781684574269489</v>
       </c>
       <c r="N4">
-        <v>0.9245122762965283</v>
+        <v>0.8781684574269489</v>
       </c>
       <c r="O4">
-        <v>0.935743729038185</v>
+        <v>0.8946444875741837</v>
       </c>
       <c r="P4">
-        <v>0.935743729038185</v>
+        <v>0.8946444875741837</v>
       </c>
       <c r="Q4">
-        <v>0.935743729038185</v>
+        <v>0.8946444875741837</v>
       </c>
       <c r="R4">
-        <v>0.9515182198054527</v>
+        <v>0.9152154854678221</v>
       </c>
       <c r="S4">
-        <v>0.9515182198054527</v>
+        <v>0.9202919404880021</v>
       </c>
       <c r="T4">
-        <v>0.9515182198054527</v>
+        <v>0.9202919404880021</v>
       </c>
       <c r="U4">
-        <v>0.9668270380092848</v>
+        <v>0.9404431941230841</v>
       </c>
       <c r="V4">
-        <v>0.9668270380092848</v>
+        <v>0.9430858319219024</v>
       </c>
       <c r="W4">
-        <v>0.9668270380092848</v>
+        <v>0.9431339441846462</v>
       </c>
       <c r="X4">
-        <v>0.9891312993792359</v>
+        <v>0.969590695148953</v>
       </c>
       <c r="Y4">
-        <v>0.9958519224844469</v>
+        <v>0.9820007892933116</v>
       </c>
       <c r="Z4">
-        <v>0.9958519224844469</v>
+        <v>0.9820007892933116</v>
       </c>
       <c r="AA4">
-        <v>0.997278406986951</v>
+        <v>0.9896388945833267</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9984443745571714</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9984443745571714</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9984443745571714</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9984443745571714</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9984443745571714</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9991703054519208</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2245,100 +2245,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06703230525802782</v>
+        <v>0.0657680957108055</v>
       </c>
       <c r="F5">
-        <v>0.1694054842929077</v>
+        <v>0.1622187830833792</v>
       </c>
       <c r="G5">
-        <v>0.448862457262684</v>
+        <v>0.4124118417829444</v>
       </c>
       <c r="H5">
-        <v>0.7217014785576279</v>
+        <v>0.6568592613067971</v>
       </c>
       <c r="I5">
-        <v>0.7217014785576279</v>
+        <v>0.6622507829433356</v>
       </c>
       <c r="J5">
-        <v>0.7217014785576279</v>
+        <v>0.6652531614463327</v>
       </c>
       <c r="K5">
-        <v>0.7217014785576279</v>
+        <v>0.6652531614463327</v>
       </c>
       <c r="L5">
-        <v>0.8160346634925664</v>
+        <v>0.7547236066922076</v>
       </c>
       <c r="M5">
-        <v>0.8590867641709325</v>
+        <v>0.7996723296356836</v>
       </c>
       <c r="N5">
-        <v>0.9713462151072094</v>
+        <v>0.9047061789788156</v>
       </c>
       <c r="O5">
-        <v>0.9713462151072094</v>
+        <v>0.9047061789788156</v>
       </c>
       <c r="P5">
-        <v>0.9713462151072094</v>
+        <v>0.9047061789788156</v>
       </c>
       <c r="Q5">
-        <v>0.972488899901633</v>
+        <v>0.9132695679752719</v>
       </c>
       <c r="R5">
-        <v>0.972488899901633</v>
+        <v>0.9132695679752719</v>
       </c>
       <c r="S5">
-        <v>0.972488899901633</v>
+        <v>0.9205526273067621</v>
       </c>
       <c r="T5">
-        <v>0.9773485545259718</v>
+        <v>0.9323430521776144</v>
       </c>
       <c r="U5">
-        <v>0.9773485545259718</v>
+        <v>0.9323547095412726</v>
       </c>
       <c r="V5">
-        <v>0.9814317562696824</v>
+        <v>0.9434710258195829</v>
       </c>
       <c r="W5">
-        <v>0.9814317562696824</v>
+        <v>0.9452966397302345</v>
       </c>
       <c r="X5">
-        <v>0.9814317562696824</v>
+        <v>0.9472496526191116</v>
       </c>
       <c r="Y5">
-        <v>0.9938104439816097</v>
+        <v>0.965568026498087</v>
       </c>
       <c r="Z5">
-        <v>0.9962200846108377</v>
+        <v>0.9752313738254622</v>
       </c>
       <c r="AA5">
-        <v>0.9962200846108377</v>
+        <v>0.9752313738254622</v>
       </c>
       <c r="AB5">
-        <v>0.9987590913391609</v>
+        <v>0.9850070355007643</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>0.9936557014715166</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>0.9936557014715166</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.9936557014715166</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.337741437284348</v>
+        <v>0.3417535508311725</v>
       </c>
       <c r="F6">
-        <v>0.3550041651696668</v>
+        <v>0.3582850627069767</v>
       </c>
       <c r="G6">
-        <v>0.7158656943283508</v>
+        <v>0.7235009004223767</v>
       </c>
       <c r="H6">
-        <v>0.7431510452258017</v>
+        <v>0.7502033777822814</v>
       </c>
       <c r="I6">
-        <v>0.7431510452258017</v>
+        <v>0.7502033777822814</v>
       </c>
       <c r="J6">
-        <v>0.7465486774174772</v>
+        <v>0.7526645799633986</v>
       </c>
       <c r="K6">
-        <v>0.7697996112885167</v>
+        <v>0.7752729278449795</v>
       </c>
       <c r="L6">
-        <v>0.8878357822117871</v>
+        <v>0.894069406647334</v>
       </c>
       <c r="M6">
-        <v>0.9476638063602962</v>
+        <v>0.953796213665874</v>
       </c>
       <c r="N6">
-        <v>0.9476638063602962</v>
+        <v>0.953796213665874</v>
       </c>
       <c r="O6">
-        <v>0.9476638063602962</v>
+        <v>0.953796213665874</v>
       </c>
       <c r="P6">
-        <v>0.9490702639218913</v>
+        <v>0.9542367703122993</v>
       </c>
       <c r="Q6">
-        <v>0.9511127591845084</v>
+        <v>0.9553227785032804</v>
       </c>
       <c r="R6">
-        <v>0.9520850855724688</v>
+        <v>0.9553227785032804</v>
       </c>
       <c r="S6">
-        <v>0.9668142886167203</v>
+        <v>0.9692832674362467</v>
       </c>
       <c r="T6">
-        <v>0.9668142886167203</v>
+        <v>0.9692832674362467</v>
       </c>
       <c r="U6">
-        <v>0.9723377156052284</v>
+        <v>0.9739017278000466</v>
       </c>
       <c r="V6">
-        <v>0.9723377156052284</v>
+        <v>0.9739017278000466</v>
       </c>
       <c r="W6">
-        <v>0.9723377156052284</v>
+        <v>0.9739017278000466</v>
       </c>
       <c r="X6">
-        <v>0.9882493535698159</v>
+        <v>0.9890621525928547</v>
       </c>
       <c r="Y6">
-        <v>0.9882493535698159</v>
+        <v>0.9890621525928547</v>
       </c>
       <c r="Z6">
-        <v>0.9882493535698159</v>
+        <v>0.9890621525928547</v>
       </c>
       <c r="AA6">
-        <v>0.9882493535698159</v>
+        <v>0.9890621525928547</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2379579508570492</v>
+        <v>0.2658173548232608</v>
       </c>
       <c r="F7">
-        <v>0.2379579508570492</v>
+        <v>0.2658173548232608</v>
       </c>
       <c r="G7">
-        <v>0.6094140375757525</v>
+        <v>0.6890047682773823</v>
       </c>
       <c r="H7">
-        <v>0.7109593475505585</v>
+        <v>0.7940163923309195</v>
       </c>
       <c r="I7">
-        <v>0.7109593475505585</v>
+        <v>0.7940163923309195</v>
       </c>
       <c r="J7">
-        <v>0.7109593475505585</v>
+        <v>0.7940163923309195</v>
       </c>
       <c r="K7">
-        <v>0.7472901605229795</v>
+        <v>0.8221519675122622</v>
       </c>
       <c r="L7">
-        <v>0.7729675158775834</v>
+        <v>0.8377290508531294</v>
       </c>
       <c r="M7">
-        <v>0.7980477299505906</v>
+        <v>0.8526022130651416</v>
       </c>
       <c r="N7">
-        <v>0.8779189185539593</v>
+        <v>0.9320639840890442</v>
       </c>
       <c r="O7">
-        <v>0.8779189185539593</v>
+        <v>0.9320639840890442</v>
       </c>
       <c r="P7">
-        <v>0.8779189185539593</v>
+        <v>0.9320639840890442</v>
       </c>
       <c r="Q7">
-        <v>0.8945420051788154</v>
+        <v>0.9369677288723109</v>
       </c>
       <c r="R7">
-        <v>0.9070052103560641</v>
+        <v>0.9369677288723109</v>
       </c>
       <c r="S7">
-        <v>0.9315712025826574</v>
+        <v>0.9512347169111999</v>
       </c>
       <c r="T7">
-        <v>0.9333316753683826</v>
+        <v>0.9512347169111999</v>
       </c>
       <c r="U7">
-        <v>0.9333316753683826</v>
+        <v>0.9512347169111999</v>
       </c>
       <c r="V7">
-        <v>0.9555371968638302</v>
+        <v>0.962719138624655</v>
       </c>
       <c r="W7">
-        <v>0.9555371968638302</v>
+        <v>0.962719138624655</v>
       </c>
       <c r="X7">
-        <v>0.9555371968638302</v>
+        <v>0.962719138624655</v>
       </c>
       <c r="Y7">
-        <v>0.9996260209181712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,100 +2575,100 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.349923463757061</v>
+        <v>0.3777573892636171</v>
       </c>
       <c r="F8">
-        <v>0.3542642252517425</v>
+        <v>0.3777573892636171</v>
       </c>
       <c r="G8">
-        <v>0.6584597592268941</v>
+        <v>0.7049738922424958</v>
       </c>
       <c r="H8">
-        <v>0.7266354995611828</v>
+        <v>0.7713290440025101</v>
       </c>
       <c r="I8">
-        <v>0.7266354995611828</v>
+        <v>0.7713290440025101</v>
       </c>
       <c r="J8">
-        <v>0.7266354995611828</v>
+        <v>0.7713290440025101</v>
       </c>
       <c r="K8">
-        <v>0.7763299442456194</v>
+        <v>0.8172577066061462</v>
       </c>
       <c r="L8">
-        <v>0.8052173311124888</v>
+        <v>0.8401893267437647</v>
       </c>
       <c r="M8">
-        <v>0.880123181511979</v>
+        <v>0.9139829461779417</v>
       </c>
       <c r="N8">
-        <v>0.8882627027887848</v>
+        <v>0.9139829461779417</v>
       </c>
       <c r="O8">
-        <v>0.8882627027887848</v>
+        <v>0.9139829461779417</v>
       </c>
       <c r="P8">
-        <v>0.9079263538957293</v>
+        <v>0.9267200138311994</v>
       </c>
       <c r="Q8">
-        <v>0.9079263538957293</v>
+        <v>0.9267200138311994</v>
       </c>
       <c r="R8">
-        <v>0.9499220376356936</v>
+        <v>0.9641396054297908</v>
       </c>
       <c r="S8">
-        <v>0.9499220376356936</v>
+        <v>0.9641396054297908</v>
       </c>
       <c r="T8">
-        <v>0.9502912682064463</v>
+        <v>0.9641396054297908</v>
       </c>
       <c r="U8">
-        <v>0.9502912682064463</v>
+        <v>0.9641396054297908</v>
       </c>
       <c r="V8">
-        <v>0.9512755112858354</v>
+        <v>0.9641396054297908</v>
       </c>
       <c r="W8">
-        <v>0.9512755112858354</v>
+        <v>0.9641396054297908</v>
       </c>
       <c r="X8">
-        <v>0.9655534822534323</v>
+        <v>0.9709241392861561</v>
       </c>
       <c r="Y8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1019221770125612</v>
+        <v>0.1077155664586609</v>
       </c>
       <c r="F9">
-        <v>0.1314333445725775</v>
+        <v>0.1312167899832433</v>
       </c>
       <c r="G9">
-        <v>0.2616892749423004</v>
+        <v>0.2718846442206482</v>
       </c>
       <c r="H9">
-        <v>0.3944478032478875</v>
+        <v>0.4154630315716</v>
       </c>
       <c r="I9">
-        <v>0.5855334802206802</v>
+        <v>0.6268761658396781</v>
       </c>
       <c r="J9">
-        <v>0.6067125227599527</v>
+        <v>0.6406870889642033</v>
       </c>
       <c r="K9">
-        <v>0.6151176590557761</v>
+        <v>0.6406870889642033</v>
       </c>
       <c r="L9">
-        <v>0.6151176590557761</v>
+        <v>0.6406870889642033</v>
       </c>
       <c r="M9">
-        <v>0.6407813450137871</v>
+        <v>0.6597136733763981</v>
       </c>
       <c r="N9">
-        <v>0.843327351576277</v>
+        <v>0.8844552246006965</v>
       </c>
       <c r="O9">
-        <v>0.843327351576277</v>
+        <v>0.8844552246006965</v>
       </c>
       <c r="P9">
-        <v>0.8565334596983916</v>
+        <v>0.8889935876784311</v>
       </c>
       <c r="Q9">
-        <v>0.9100848100655853</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="R9">
-        <v>0.9193886440587173</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="S9">
-        <v>0.9193886440587173</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="T9">
-        <v>0.9193886440587173</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="U9">
-        <v>0.9193886440587173</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="V9">
-        <v>0.9193886440587173</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="W9">
-        <v>0.9193886440587173</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="X9">
-        <v>0.9614196639064213</v>
+        <v>0.9785155266727907</v>
       </c>
       <c r="Y9">
-        <v>0.9660739778892936</v>
+        <v>0.9785155266727907</v>
       </c>
       <c r="Z9">
-        <v>0.9660739778892936</v>
+        <v>0.9785155266727907</v>
       </c>
       <c r="AA9">
-        <v>0.9722229184937066</v>
+        <v>0.9785155266727907</v>
       </c>
       <c r="AB9">
-        <v>0.9722229184937066</v>
+        <v>0.9785155266727907</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -2795,73 +2795,73 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3201795407324449</v>
+        <v>0.315941936158867</v>
       </c>
       <c r="F10">
-        <v>0.4881107640161625</v>
+        <v>0.4824495597564109</v>
       </c>
       <c r="G10">
-        <v>0.7614039318484883</v>
+        <v>0.7523717236101901</v>
       </c>
       <c r="H10">
-        <v>0.7738993365293555</v>
+        <v>0.7663164480601241</v>
       </c>
       <c r="I10">
-        <v>0.7738993365293555</v>
+        <v>0.7663164480601241</v>
       </c>
       <c r="J10">
-        <v>0.7738993365293555</v>
+        <v>0.7663164480601241</v>
       </c>
       <c r="K10">
-        <v>0.8384465674947985</v>
+        <v>0.8313509251506185</v>
       </c>
       <c r="L10">
-        <v>0.8384465674947985</v>
+        <v>0.8313509251506185</v>
       </c>
       <c r="M10">
-        <v>0.9013178183842081</v>
+        <v>0.8947403992964146</v>
       </c>
       <c r="N10">
-        <v>0.9013178183842081</v>
+        <v>0.8947403992964146</v>
       </c>
       <c r="O10">
-        <v>0.9013178183842081</v>
+        <v>0.8947403992964146</v>
       </c>
       <c r="P10">
-        <v>0.9245394073853358</v>
+        <v>0.919213056055643</v>
       </c>
       <c r="Q10">
-        <v>0.9245394073853358</v>
+        <v>0.919213056055643</v>
       </c>
       <c r="R10">
-        <v>0.9672427895412272</v>
+        <v>0.9628074240845176</v>
       </c>
       <c r="S10">
-        <v>0.9672427895412272</v>
+        <v>0.9628074240845176</v>
       </c>
       <c r="T10">
-        <v>0.9672427895412272</v>
+        <v>0.9628074240845176</v>
       </c>
       <c r="U10">
-        <v>0.9681766097504317</v>
+        <v>0.9654042567705613</v>
       </c>
       <c r="V10">
-        <v>0.9681766097504317</v>
+        <v>0.9654042567705613</v>
       </c>
       <c r="W10">
-        <v>0.9681766097504317</v>
+        <v>0.9654042567705613</v>
       </c>
       <c r="X10">
-        <v>0.9960156527324475</v>
+        <v>0.99440902313192</v>
       </c>
       <c r="Y10">
-        <v>0.9960156527324475</v>
+        <v>0.99440902313192</v>
       </c>
       <c r="Z10">
-        <v>0.9960156527324475</v>
+        <v>0.99440902313192</v>
       </c>
       <c r="AA10">
-        <v>0.9960156527324475</v>
+        <v>0.99440902313192</v>
       </c>
       <c r="AB10">
         <v>1</v>
@@ -2905,64 +2905,64 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2850626645025323</v>
+        <v>0.3451730267012569</v>
       </c>
       <c r="F11">
-        <v>0.2850626645025323</v>
+        <v>0.3451730267012569</v>
       </c>
       <c r="G11">
-        <v>0.6156882861568695</v>
+        <v>0.7492276671255818</v>
       </c>
       <c r="H11">
-        <v>0.6589944294463385</v>
+        <v>0.7819755356073538</v>
       </c>
       <c r="I11">
-        <v>0.6707021714869216</v>
+        <v>0.7819755356073538</v>
       </c>
       <c r="J11">
-        <v>0.6707021714869216</v>
+        <v>0.7819755356073538</v>
       </c>
       <c r="K11">
-        <v>0.7070107787217254</v>
+        <v>0.8056803954535963</v>
       </c>
       <c r="L11">
-        <v>0.7459618759727724</v>
+        <v>0.8328001801890443</v>
       </c>
       <c r="M11">
-        <v>0.7628259047575071</v>
+        <v>0.8328001801890443</v>
       </c>
       <c r="N11">
-        <v>0.851472783178417</v>
+        <v>0.9241424819301529</v>
       </c>
       <c r="O11">
-        <v>0.851472783178417</v>
+        <v>0.9241424819301529</v>
       </c>
       <c r="P11">
-        <v>0.851472783178417</v>
+        <v>0.9241424819301529</v>
       </c>
       <c r="Q11">
-        <v>0.8694384231408963</v>
+        <v>0.9241424819301529</v>
       </c>
       <c r="R11">
-        <v>0.8931470923771294</v>
+        <v>0.9315642748170979</v>
       </c>
       <c r="S11">
-        <v>0.9161928956836348</v>
+        <v>0.9381294372730028</v>
       </c>
       <c r="T11">
-        <v>0.9161928956836348</v>
+        <v>0.9381294372730028</v>
       </c>
       <c r="U11">
-        <v>0.9161928956836348</v>
+        <v>0.9381294372730028</v>
       </c>
       <c r="V11">
-        <v>0.9478628822583782</v>
+        <v>0.9558397461289855</v>
       </c>
       <c r="W11">
-        <v>0.9478628822583782</v>
+        <v>0.9558397461289855</v>
       </c>
       <c r="X11">
-        <v>0.9478628822583782</v>
+        <v>0.9558397461289855</v>
       </c>
       <c r="Y11">
         <v>0.9999999999999999</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5693425522862761</v>
+        <v>0.5273499883356613</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6581279372370029</v>
+        <v>0.6183256570083189</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.713466863559528</v>
+        <v>0.6685083761732786</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7217014785576279</v>
+        <v>0.6568592613067971</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7158656943283508</v>
+        <v>0.7235009004223767</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6094140375757525</v>
+        <v>0.6890047682773823</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6584597592268941</v>
+        <v>0.7049738922424958</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5855334802206802</v>
+        <v>0.6268761658396781</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7614039318484883</v>
+        <v>0.7523717236101901</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6156882861568695</v>
+        <v>0.7492276671255818</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3530,16 +3530,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7247628354602129</v>
+        <v>0.7244869056360691</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -3571,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7123715572381545</v>
+        <v>0.7523621135195646</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -3612,16 +3612,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.713466863559528</v>
+        <v>0.7621199369354471</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -3653,16 +3653,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7217014785576279</v>
+        <v>0.7547236066922076</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7158656943283508</v>
+        <v>0.7235009004223767</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7109593475505585</v>
+        <v>0.7940163923309195</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3776,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7266354995611828</v>
+        <v>0.7049738922424958</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.843327351576277</v>
+        <v>0.8844552246006965</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7614039318484883</v>
+        <v>0.7523717236101901</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7070107787217254</v>
+        <v>0.7492276671255818</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>18</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8495027985897582</v>
+        <v>0.8030441147232956</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -4035,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8262415991005095</v>
+        <v>0.8436112477965524</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -4076,16 +4076,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8781684574269489</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8098605180926205</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -4117,16 +4117,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9047061789788156</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8160346634925664</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8878357822117871</v>
+        <v>0.894069406647334</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4199,16 +4199,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8779189185539593</v>
+        <v>0.8221519675122622</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>18</v>
@@ -4240,16 +4240,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8052173311124888</v>
+        <v>0.8172577066061462</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.843327351576277</v>
+        <v>0.8844552246006965</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8384465674947985</v>
+        <v>0.8313509251506185</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4363,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.851472783178417</v>
+        <v>0.8056803954535963</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>18</v>
@@ -4458,16 +4458,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9432073659269393</v>
+        <v>0.9007811445524027</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -4499,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.910753641463117</v>
+        <v>0.9205428316687569</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -4540,16 +4540,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9245122762965283</v>
+        <v>0.9152154854678221</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9713462151072094</v>
+        <v>0.9047061789788156</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9476638063602962</v>
+        <v>0.953796213665874</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -4663,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9070052103560641</v>
+        <v>0.9320639840890442</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>18</v>
@@ -4704,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9079263538957293</v>
+        <v>0.9139829461779417</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9100848100655853</v>
+        <v>0.9404536563348213</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -4786,16 +4786,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9013178183842081</v>
+        <v>0.919213056055643</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>18</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9161928956836348</v>
+        <v>0.9241424819301529</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>18</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/18_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/18_245-70R19.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -562,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -674,1004 +671,974 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1168300517728939</v>
+      </c>
+      <c r="E2">
+        <v>0.006412139575184506</v>
+      </c>
+      <c r="F2">
+        <v>0.4041077969875829</v>
+      </c>
+      <c r="G2">
+        <v>0.1451202214162442</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.02146111523365722</v>
+      </c>
+      <c r="J2">
+        <v>0.0305555806505063</v>
+      </c>
+      <c r="K2">
+        <v>0.07855720908722658</v>
+      </c>
+      <c r="L2">
+        <v>0.02131905493347852</v>
+      </c>
+      <c r="M2">
+        <v>0.07514062631799263</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.001277348577635797</v>
+      </c>
+      <c r="Q2">
+        <v>0.01311887939331983</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.02914035805921379</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.003194849288557902</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.004674751752927405</v>
+      </c>
+      <c r="X2">
+        <v>0.006395915891231194</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.02767578114371792</v>
+      </c>
+      <c r="AB2">
+        <v>0.002992306233381891</v>
+      </c>
+      <c r="AC2">
+        <v>0.001511697728292608</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.005718920546032767</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.00479539541092202</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.1168300517728939</v>
-      </c>
-      <c r="F2">
-        <v>0.006412139575184506</v>
-      </c>
-      <c r="G2">
-        <v>0.4041077969875829</v>
-      </c>
-      <c r="H2">
-        <v>0.1451202214162442</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.02146111523365722</v>
-      </c>
-      <c r="K2">
-        <v>0.0305555806505063</v>
-      </c>
-      <c r="L2">
-        <v>0.07855720908722658</v>
-      </c>
-      <c r="M2">
-        <v>0.02131905493347852</v>
-      </c>
-      <c r="N2">
-        <v>0.07514062631799263</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.001277348577635797</v>
-      </c>
-      <c r="R2">
-        <v>0.01311887939331983</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0.02914035805921379</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.003194849288557902</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0.004674751752927405</v>
-      </c>
-      <c r="Y2">
-        <v>0.006395915891231194</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.02767578114371792</v>
-      </c>
-      <c r="AC2">
-        <v>0.002992306233381891</v>
-      </c>
-      <c r="AD2">
-        <v>0.001511697728292608</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.005718920546032767</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0.00479539541092202</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2984477524187038</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.4083366748606009</v>
+      </c>
+      <c r="G3">
+        <v>0.05309181348126849</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.0001866603046792884</v>
+      </c>
+      <c r="J3">
+        <v>0.07033841180792676</v>
+      </c>
+      <c r="K3">
+        <v>0.03535940469382962</v>
+      </c>
+      <c r="L3">
+        <v>0.04929572036029672</v>
+      </c>
+      <c r="M3">
+        <v>0.0306898412795678</v>
+      </c>
+      <c r="N3">
+        <v>0.01226133740285859</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.01292263209725137</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.006752777121237753</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.001958848343415288</v>
+      </c>
+      <c r="X3">
+        <v>0.009421917273108369</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.01093620855525485</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2615242862487356</v>
-      </c>
-      <c r="F3">
-        <v>0.002644842208628682</v>
-      </c>
-      <c r="G3">
-        <v>0.3541565285509545</v>
-      </c>
-      <c r="H3">
-        <v>0.05469842718220351</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.0101013662666137</v>
-      </c>
-      <c r="K3">
-        <v>0.0692366630624285</v>
-      </c>
-      <c r="L3">
-        <v>0.03975067129472051</v>
-      </c>
-      <c r="M3">
-        <v>0.05149846298226725</v>
-      </c>
-      <c r="N3">
-        <v>0.03581440438060835</v>
-      </c>
-      <c r="O3">
-        <v>0.02027986642681863</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.02083731306477754</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.009944018626951476</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.01563635660431326</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.0115952543507023</v>
-      </c>
-      <c r="Y3">
-        <v>0.01788634169646293</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0.01916283248231169</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.0008780526431924011</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0.004354311927309397</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2381974974957827</v>
+      </c>
+      <c r="E4">
+        <v>0.2021302503514406</v>
+      </c>
+      <c r="F4">
+        <v>0.2255417627657531</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.0003756644428385034</v>
+      </c>
+      <c r="J4">
+        <v>0.09398109862908892</v>
+      </c>
+      <c r="K4">
+        <v>0.02494272756437084</v>
+      </c>
+      <c r="L4">
+        <v>0.09202960644770773</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.01660718890178832</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.02073475496615777</v>
+      </c>
+      <c r="R4">
+        <v>0.005116866546017507</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.02031166929989027</v>
+      </c>
+      <c r="U4">
+        <v>0.002663674728183738</v>
+      </c>
+      <c r="V4">
+        <v>4.849526425591153E-05</v>
+      </c>
+      <c r="W4">
+        <v>0.02666736204446394</v>
+      </c>
+      <c r="X4">
+        <v>0.01250888569046048</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.007698909037521884</v>
+      </c>
+      <c r="AA4">
+        <v>0.008875576700804747</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.0007317097256447208</v>
+      </c>
+      <c r="AG4">
+        <v>0.0008362993978283474</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.007897709559948903</v>
-      </c>
-      <c r="E4">
-        <v>0.2363162828426543</v>
-      </c>
-      <c r="F4">
-        <v>0.2005338843408851</v>
-      </c>
-      <c r="G4">
-        <v>0.2237604994297902</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0003726975541769644</v>
-      </c>
-      <c r="K4">
-        <v>0.09323886320799146</v>
-      </c>
-      <c r="L4">
-        <v>0.02474573714643451</v>
-      </c>
-      <c r="M4">
-        <v>0.09130278334506733</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.01647603014723479</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.02057099789363835</v>
-      </c>
-      <c r="S4">
-        <v>0.005076455020180041</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.02015125363508201</v>
-      </c>
-      <c r="V4">
-        <v>0.002642637798818368</v>
-      </c>
-      <c r="W4">
-        <v>4.811226274378505E-05</v>
-      </c>
-      <c r="X4">
-        <v>0.02645675096430676</v>
-      </c>
-      <c r="Y4">
-        <v>0.01241009414435862</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0.00763810529001507</v>
-      </c>
-      <c r="AB4">
-        <v>0.008805479973844739</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0.0007259308947493889</v>
-      </c>
-      <c r="AH4">
-        <v>0.0008296945480791385</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.0657680957108055</v>
+      </c>
+      <c r="E5">
+        <v>0.09645068737257369</v>
+      </c>
+      <c r="F5">
+        <v>0.2501930586995653</v>
+      </c>
+      <c r="G5">
+        <v>0.2444474195238526</v>
+      </c>
+      <c r="H5">
+        <v>0.005391521636538587</v>
+      </c>
+      <c r="I5">
+        <v>0.003002378502997111</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.08947044524587487</v>
+      </c>
+      <c r="L5">
+        <v>0.04494872294347601</v>
+      </c>
+      <c r="M5">
+        <v>0.105033849343132</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.008563388996456403</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.007283059331490171</v>
+      </c>
+      <c r="S5">
+        <v>0.01179042487085229</v>
+      </c>
+      <c r="T5">
+        <v>1.165736365832169E-05</v>
+      </c>
+      <c r="U5">
+        <v>0.01111631627831025</v>
+      </c>
+      <c r="V5">
+        <v>0.001825613910651589</v>
+      </c>
+      <c r="W5">
+        <v>0.001953012888877196</v>
+      </c>
+      <c r="X5">
+        <v>0.01831837387897536</v>
+      </c>
+      <c r="Y5">
+        <v>0.009663347327375161</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.009775661675302055</v>
+      </c>
+      <c r="AB5">
+        <v>0.008648665970752298</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.006344298528483383</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.0657680957108055</v>
-      </c>
-      <c r="F5">
-        <v>0.09645068737257369</v>
-      </c>
-      <c r="G5">
-        <v>0.2501930586995653</v>
-      </c>
-      <c r="H5">
-        <v>0.2444474195238526</v>
-      </c>
-      <c r="I5">
-        <v>0.005391521636538587</v>
-      </c>
-      <c r="J5">
-        <v>0.003002378502997111</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.08947044524587487</v>
-      </c>
-      <c r="M5">
-        <v>0.04494872294347601</v>
-      </c>
-      <c r="N5">
-        <v>0.105033849343132</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.008563388996456403</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.007283059331490171</v>
-      </c>
-      <c r="T5">
-        <v>0.01179042487085229</v>
-      </c>
-      <c r="U5">
-        <v>1.165736365832169E-05</v>
-      </c>
-      <c r="V5">
-        <v>0.01111631627831025</v>
-      </c>
-      <c r="W5">
-        <v>0.001825613910651589</v>
-      </c>
-      <c r="X5">
-        <v>0.001953012888877196</v>
-      </c>
-      <c r="Y5">
-        <v>0.01831837387897536</v>
-      </c>
-      <c r="Z5">
-        <v>0.009663347327375161</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.009775661675302055</v>
-      </c>
-      <c r="AC5">
-        <v>0.008648665970752298</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.006344298528483383</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.3417535508311725</v>
+      </c>
+      <c r="E6">
+        <v>0.01653151187580416</v>
+      </c>
+      <c r="F6">
+        <v>0.3652158377154001</v>
+      </c>
+      <c r="G6">
+        <v>0.02670247735990473</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.002461202181117225</v>
+      </c>
+      <c r="J6">
+        <v>0.02260834788158081</v>
+      </c>
+      <c r="K6">
+        <v>0.1187964788023546</v>
+      </c>
+      <c r="L6">
+        <v>0.05972680701853995</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.0004405566464252768</v>
+      </c>
+      <c r="P6">
+        <v>0.001086008190981154</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.01396048893296626</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.004618460363799845</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.01516042479280813</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0.01093784740714531</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.3417535508311725</v>
-      </c>
-      <c r="F6">
-        <v>0.01653151187580416</v>
-      </c>
-      <c r="G6">
-        <v>0.3652158377154001</v>
-      </c>
-      <c r="H6">
-        <v>0.02670247735990473</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.002461202181117225</v>
-      </c>
-      <c r="K6">
-        <v>0.02260834788158081</v>
-      </c>
-      <c r="L6">
-        <v>0.1187964788023546</v>
-      </c>
-      <c r="M6">
-        <v>0.05972680701853995</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.0004405566464252768</v>
-      </c>
-      <c r="Q6">
-        <v>0.001086008190981154</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.01396048893296626</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.004618460363799845</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.01516042479280813</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.01093784740714531</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.2658173548232608</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.4231874134541215</v>
+      </c>
+      <c r="G7">
+        <v>0.1050116240535372</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.02813557518134273</v>
+      </c>
+      <c r="K7">
+        <v>0.01557708334086728</v>
+      </c>
+      <c r="L7">
+        <v>0.01487316221201221</v>
+      </c>
+      <c r="M7">
+        <v>0.0794617710239026</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.004903744783266766</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.01426698803888891</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.01148442171345514</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.03728086137534491</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.2658173548232608</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.4231874134541215</v>
-      </c>
-      <c r="H7">
-        <v>0.1050116240535372</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.02813557518134273</v>
-      </c>
-      <c r="L7">
-        <v>0.01557708334086728</v>
-      </c>
-      <c r="M7">
-        <v>0.01487316221201221</v>
-      </c>
-      <c r="N7">
-        <v>0.0794617710239026</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0.004903744783266766</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.01426698803888891</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0.01148442171345514</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0.03728086137534491</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.351370547656304</v>
+      </c>
+      <c r="E8">
+        <v>0.00399216734712245</v>
+      </c>
+      <c r="F8">
+        <v>0.3054050115384943</v>
+      </c>
+      <c r="G8">
+        <v>0.06815883833847776</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.04958151225464386</v>
+      </c>
+      <c r="K8">
+        <v>0.02866633913877917</v>
+      </c>
+      <c r="L8">
+        <v>0.07492391864616396</v>
+      </c>
+      <c r="M8">
+        <v>0.007810665818426465</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.01939467603843708</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.04184274787271625</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.0006182081676003297</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.01398101143247691</v>
+      </c>
+      <c r="X8">
+        <v>0.03425435575035741</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.3777573892636171</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.3272165029788788</v>
-      </c>
-      <c r="H8">
-        <v>0.06635515176001427</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0.04592866260363605</v>
-      </c>
-      <c r="L8">
-        <v>0.02293162013761852</v>
-      </c>
-      <c r="M8">
-        <v>0.07379361943417709</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0.0127370676532577</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0.03741959159859142</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0.006784533856365194</v>
-      </c>
-      <c r="Y8">
-        <v>0.029075860713844</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.09818827704361525</v>
+      </c>
+      <c r="E9">
+        <v>0.03234093409112676</v>
+      </c>
+      <c r="F9">
+        <v>0.12395372885192</v>
+      </c>
+      <c r="G9">
+        <v>0.1262294798157709</v>
+      </c>
+      <c r="H9">
+        <v>0.1792695878154707</v>
+      </c>
+      <c r="I9">
+        <v>0.02476407115395849</v>
+      </c>
+      <c r="J9">
+        <v>0.01314805044640896</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.02884220589404693</v>
+      </c>
+      <c r="M9">
+        <v>0.1896911004907759</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.01751384013420789</v>
+      </c>
+      <c r="P9">
+        <v>0.05420200430562425</v>
+      </c>
+      <c r="Q9">
+        <v>0.01396528605647288</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.002567884285535827</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.04372592946040336</v>
+      </c>
+      <c r="X9">
+        <v>0.009737219896441314</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.01109636669578272</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.03076403356243795</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.1077155664586609</v>
-      </c>
-      <c r="F9">
-        <v>0.0235012235245824</v>
-      </c>
-      <c r="G9">
-        <v>0.1406678542374049</v>
-      </c>
-      <c r="H9">
-        <v>0.1435783873509518</v>
-      </c>
-      <c r="I9">
-        <v>0.2114131342680781</v>
-      </c>
-      <c r="J9">
-        <v>0.01381092312452528</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0.01902658441219471</v>
-      </c>
-      <c r="N9">
-        <v>0.2247415512242985</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.004538363077734567</v>
-      </c>
-      <c r="Q9">
-        <v>0.0514600686563902</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0.03806187033796946</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0.02148447332720924</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.315941936158867</v>
+      </c>
+      <c r="E10">
+        <v>0.1665076235975439</v>
+      </c>
+      <c r="F10">
+        <v>0.2699221638537792</v>
+      </c>
+      <c r="G10">
+        <v>0.01394472444993394</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.0650344770904944</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.06338947414579611</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.02447265675922843</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.04359436802887463</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.002596832686043667</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.02900476636135876</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0.005590976868080065</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.315941936158867</v>
-      </c>
-      <c r="F10">
-        <v>0.1665076235975439</v>
-      </c>
-      <c r="G10">
-        <v>0.2699221638537792</v>
-      </c>
-      <c r="H10">
-        <v>0.01394472444993394</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.0650344770904944</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0.06338947414579611</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0.02447265675922843</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0.04359436802887463</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.002596832686043667</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0.02900476636135876</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0.005590976868080065</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -1679,37 +1646,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3451730267012569</v>
       </c>
       <c r="E11">
-        <v>0.3451730267012569</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.4040546404243249</v>
       </c>
       <c r="G11">
-        <v>0.4040546404243249</v>
+        <v>0.03274786848177207</v>
       </c>
       <c r="H11">
-        <v>0.03274786848177207</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02370485984624245</v>
       </c>
       <c r="K11">
-        <v>0.02370485984624245</v>
+        <v>0.02711978473544803</v>
       </c>
       <c r="L11">
-        <v>0.02711978473544803</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09134230174110854</v>
       </c>
       <c r="N11">
-        <v>0.09134230174110854</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1718,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.00742179288694499</v>
       </c>
       <c r="R11">
-        <v>0.00742179288694499</v>
+        <v>0.006565162455904903</v>
       </c>
       <c r="S11">
-        <v>0.006565162455904903</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.01771030885598272</v>
       </c>
       <c r="V11">
-        <v>0.01771030885598272</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.04416025387101444</v>
       </c>
       <c r="Y11">
-        <v>0.04416025387101444</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1772,9 +1739,6 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
         <v>0</v>
       </c>
     </row>
@@ -1785,15 +1749,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1897,13 +1861,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1912,34 +1873,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1168300517728939</v>
       </c>
       <c r="E2">
-        <v>0.1168300517728939</v>
+        <v>0.1232421913480784</v>
       </c>
       <c r="F2">
-        <v>0.1232421913480784</v>
+        <v>0.5273499883356613</v>
       </c>
       <c r="G2">
-        <v>0.5273499883356613</v>
+        <v>0.6724702097519055</v>
       </c>
       <c r="H2">
         <v>0.6724702097519055</v>
       </c>
       <c r="I2">
-        <v>0.6724702097519055</v>
+        <v>0.6939313249855628</v>
       </c>
       <c r="J2">
-        <v>0.6939313249855628</v>
+        <v>0.7244869056360691</v>
       </c>
       <c r="K2">
-        <v>0.7244869056360691</v>
+        <v>0.8030441147232956</v>
       </c>
       <c r="L2">
-        <v>0.8030441147232956</v>
+        <v>0.8243631696567741</v>
       </c>
       <c r="M2">
-        <v>0.8243631696567741</v>
+        <v>0.8995037959747668</v>
       </c>
       <c r="N2">
         <v>0.8995037959747668</v>
@@ -1948,31 +1909,31 @@
         <v>0.8995037959747668</v>
       </c>
       <c r="P2">
-        <v>0.8995037959747668</v>
+        <v>0.9007811445524027</v>
       </c>
       <c r="Q2">
-        <v>0.9007811445524027</v>
+        <v>0.9139000239457225</v>
       </c>
       <c r="R2">
         <v>0.9139000239457225</v>
       </c>
       <c r="S2">
-        <v>0.9139000239457225</v>
+        <v>0.9430403820049362</v>
       </c>
       <c r="T2">
         <v>0.9430403820049362</v>
       </c>
       <c r="U2">
-        <v>0.9430403820049362</v>
+        <v>0.9462352312934942</v>
       </c>
       <c r="V2">
         <v>0.9462352312934942</v>
       </c>
       <c r="W2">
-        <v>0.9462352312934942</v>
+        <v>0.9509099830464216</v>
       </c>
       <c r="X2">
-        <v>0.9509099830464216</v>
+        <v>0.9573058989376528</v>
       </c>
       <c r="Y2">
         <v>0.9573058989376528</v>
@@ -1981,25 +1942,25 @@
         <v>0.9573058989376528</v>
       </c>
       <c r="AA2">
-        <v>0.9573058989376528</v>
+        <v>0.9849816800813708</v>
       </c>
       <c r="AB2">
-        <v>0.9849816800813708</v>
+        <v>0.9879739863147526</v>
       </c>
       <c r="AC2">
-        <v>0.9879739863147526</v>
+        <v>0.9894856840430453</v>
       </c>
       <c r="AD2">
         <v>0.9894856840430453</v>
       </c>
       <c r="AE2">
-        <v>0.9894856840430453</v>
+        <v>0.995204604589078</v>
       </c>
       <c r="AF2">
         <v>0.995204604589078</v>
       </c>
       <c r="AG2">
-        <v>0.995204604589078</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -2007,234 +1968,225 @@
       <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2984477524187038</v>
+      </c>
+      <c r="E3">
+        <v>0.2984477524187038</v>
+      </c>
+      <c r="F3">
+        <v>0.7067844272793047</v>
+      </c>
+      <c r="G3">
+        <v>0.7598762407605731</v>
+      </c>
+      <c r="H3">
+        <v>0.7598762407605731</v>
+      </c>
+      <c r="I3">
+        <v>0.7600629010652524</v>
+      </c>
+      <c r="J3">
+        <v>0.8304013128731792</v>
+      </c>
+      <c r="K3">
+        <v>0.8657607175670088</v>
+      </c>
+      <c r="L3">
+        <v>0.9150564379273055</v>
+      </c>
+      <c r="M3">
+        <v>0.9457462792068733</v>
+      </c>
+      <c r="N3">
+        <v>0.9580076166097319</v>
+      </c>
+      <c r="O3">
+        <v>0.9580076166097319</v>
+      </c>
+      <c r="P3">
+        <v>0.9580076166097319</v>
+      </c>
+      <c r="Q3">
+        <v>0.9709302487069833</v>
+      </c>
+      <c r="R3">
+        <v>0.9709302487069833</v>
+      </c>
+      <c r="S3">
+        <v>0.9709302487069833</v>
+      </c>
+      <c r="T3">
+        <v>0.9709302487069833</v>
+      </c>
+      <c r="U3">
+        <v>0.9776830258282211</v>
+      </c>
+      <c r="V3">
+        <v>0.9776830258282211</v>
+      </c>
+      <c r="W3">
+        <v>0.9796418741716364</v>
+      </c>
+      <c r="X3">
+        <v>0.9890637914447448</v>
+      </c>
+      <c r="Y3">
+        <v>0.9890637914447448</v>
+      </c>
+      <c r="Z3">
+        <v>0.9890637914447448</v>
+      </c>
+      <c r="AA3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AB3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AC3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AD3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AF3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2615242862487356</v>
-      </c>
-      <c r="F3">
-        <v>0.2641691284573643</v>
-      </c>
-      <c r="G3">
-        <v>0.6183256570083189</v>
-      </c>
-      <c r="H3">
-        <v>0.6730240841905224</v>
-      </c>
-      <c r="I3">
-        <v>0.6730240841905224</v>
-      </c>
-      <c r="J3">
-        <v>0.6831254504571361</v>
-      </c>
-      <c r="K3">
-        <v>0.7523621135195646</v>
-      </c>
-      <c r="L3">
-        <v>0.7921127848142852</v>
-      </c>
-      <c r="M3">
-        <v>0.8436112477965524</v>
-      </c>
-      <c r="N3">
-        <v>0.8794256521771607</v>
-      </c>
-      <c r="O3">
-        <v>0.8997055186039794</v>
-      </c>
-      <c r="P3">
-        <v>0.8997055186039794</v>
-      </c>
-      <c r="Q3">
-        <v>0.8997055186039794</v>
-      </c>
-      <c r="R3">
-        <v>0.9205428316687569</v>
-      </c>
-      <c r="S3">
-        <v>0.9205428316687569</v>
-      </c>
-      <c r="T3">
-        <v>0.9304868502957084</v>
-      </c>
-      <c r="U3">
-        <v>0.9304868502957084</v>
-      </c>
-      <c r="V3">
-        <v>0.9461232069000217</v>
-      </c>
-      <c r="W3">
-        <v>0.9461232069000217</v>
-      </c>
-      <c r="X3">
-        <v>0.957718461250724</v>
-      </c>
-      <c r="Y3">
-        <v>0.975604802947187</v>
-      </c>
-      <c r="Z3">
-        <v>0.975604802947187</v>
-      </c>
-      <c r="AA3">
-        <v>0.975604802947187</v>
-      </c>
-      <c r="AB3">
-        <v>0.9947676354294986</v>
-      </c>
-      <c r="AC3">
-        <v>0.9947676354294986</v>
-      </c>
-      <c r="AD3">
-        <v>0.9947676354294986</v>
-      </c>
-      <c r="AE3">
-        <v>0.9947676354294986</v>
-      </c>
-      <c r="AF3">
-        <v>0.995645688072691</v>
-      </c>
-      <c r="AG3">
-        <v>0.995645688072691</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2381974974957827</v>
+      </c>
+      <c r="E4">
+        <v>0.4403277478472233</v>
+      </c>
+      <c r="F4">
+        <v>0.6658695106129764</v>
+      </c>
+      <c r="G4">
+        <v>0.6658695106129764</v>
+      </c>
+      <c r="H4">
+        <v>0.6658695106129764</v>
+      </c>
+      <c r="I4">
+        <v>0.6662451750558149</v>
+      </c>
+      <c r="J4">
+        <v>0.7602262736849038</v>
+      </c>
+      <c r="K4">
+        <v>0.7851690012492747</v>
+      </c>
+      <c r="L4">
+        <v>0.8771986076969824</v>
+      </c>
+      <c r="M4">
+        <v>0.8771986076969824</v>
+      </c>
+      <c r="N4">
+        <v>0.8938057965987708</v>
+      </c>
+      <c r="O4">
+        <v>0.8938057965987708</v>
+      </c>
+      <c r="P4">
+        <v>0.8938057965987708</v>
+      </c>
+      <c r="Q4">
+        <v>0.9145405515649285</v>
+      </c>
+      <c r="R4">
+        <v>0.919657418110946</v>
+      </c>
+      <c r="S4">
+        <v>0.919657418110946</v>
+      </c>
+      <c r="T4">
+        <v>0.9399690874108363</v>
+      </c>
+      <c r="U4">
+        <v>0.94263276213902</v>
+      </c>
+      <c r="V4">
+        <v>0.9426812574032759</v>
+      </c>
+      <c r="W4">
+        <v>0.9693486194477399</v>
+      </c>
+      <c r="X4">
+        <v>0.9818575051382004</v>
+      </c>
+      <c r="Y4">
+        <v>0.9818575051382004</v>
+      </c>
+      <c r="Z4">
+        <v>0.9895564141757223</v>
+      </c>
+      <c r="AA4">
+        <v>0.998431990876527</v>
+      </c>
+      <c r="AB4">
+        <v>0.998431990876527</v>
+      </c>
+      <c r="AC4">
+        <v>0.998431990876527</v>
+      </c>
+      <c r="AD4">
+        <v>0.998431990876527</v>
+      </c>
+      <c r="AE4">
+        <v>0.998431990876527</v>
+      </c>
+      <c r="AF4">
+        <v>0.9991637006021717</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.007897709559948903</v>
-      </c>
-      <c r="E4">
-        <v>0.2442139924026032</v>
-      </c>
-      <c r="F4">
-        <v>0.4447478767434884</v>
-      </c>
-      <c r="G4">
-        <v>0.6685083761732786</v>
-      </c>
-      <c r="H4">
-        <v>0.6685083761732786</v>
-      </c>
-      <c r="I4">
-        <v>0.6685083761732786</v>
-      </c>
-      <c r="J4">
-        <v>0.6688810737274556</v>
-      </c>
-      <c r="K4">
-        <v>0.7621199369354471</v>
-      </c>
-      <c r="L4">
-        <v>0.7868656740818816</v>
-      </c>
-      <c r="M4">
-        <v>0.8781684574269489</v>
-      </c>
-      <c r="N4">
-        <v>0.8781684574269489</v>
-      </c>
-      <c r="O4">
-        <v>0.8946444875741837</v>
-      </c>
-      <c r="P4">
-        <v>0.8946444875741837</v>
-      </c>
-      <c r="Q4">
-        <v>0.8946444875741837</v>
-      </c>
-      <c r="R4">
-        <v>0.9152154854678221</v>
-      </c>
-      <c r="S4">
-        <v>0.9202919404880021</v>
-      </c>
-      <c r="T4">
-        <v>0.9202919404880021</v>
-      </c>
-      <c r="U4">
-        <v>0.9404431941230841</v>
-      </c>
-      <c r="V4">
-        <v>0.9430858319219024</v>
-      </c>
-      <c r="W4">
-        <v>0.9431339441846462</v>
-      </c>
-      <c r="X4">
-        <v>0.969590695148953</v>
-      </c>
-      <c r="Y4">
-        <v>0.9820007892933116</v>
-      </c>
-      <c r="Z4">
-        <v>0.9820007892933116</v>
-      </c>
-      <c r="AA4">
-        <v>0.9896388945833267</v>
-      </c>
-      <c r="AB4">
-        <v>0.9984443745571714</v>
-      </c>
-      <c r="AC4">
-        <v>0.9984443745571714</v>
-      </c>
-      <c r="AD4">
-        <v>0.9984443745571714</v>
-      </c>
-      <c r="AE4">
-        <v>0.9984443745571714</v>
-      </c>
-      <c r="AF4">
-        <v>0.9984443745571714</v>
-      </c>
-      <c r="AG4">
-        <v>0.9991703054519208</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -2242,34 +2194,34 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0657680957108055</v>
       </c>
       <c r="E5">
-        <v>0.0657680957108055</v>
+        <v>0.1622187830833792</v>
       </c>
       <c r="F5">
-        <v>0.1622187830833792</v>
+        <v>0.4124118417829444</v>
       </c>
       <c r="G5">
-        <v>0.4124118417829444</v>
+        <v>0.6568592613067971</v>
       </c>
       <c r="H5">
-        <v>0.6568592613067971</v>
+        <v>0.6622507829433356</v>
       </c>
       <c r="I5">
-        <v>0.6622507829433356</v>
+        <v>0.6652531614463327</v>
       </c>
       <c r="J5">
         <v>0.6652531614463327</v>
       </c>
       <c r="K5">
-        <v>0.6652531614463327</v>
+        <v>0.7547236066922076</v>
       </c>
       <c r="L5">
-        <v>0.7547236066922076</v>
+        <v>0.7996723296356836</v>
       </c>
       <c r="M5">
-        <v>0.7996723296356836</v>
+        <v>0.9047061789788156</v>
       </c>
       <c r="N5">
         <v>0.9047061789788156</v>
@@ -2278,43 +2230,43 @@
         <v>0.9047061789788156</v>
       </c>
       <c r="P5">
-        <v>0.9047061789788156</v>
+        <v>0.9132695679752719</v>
       </c>
       <c r="Q5">
         <v>0.9132695679752719</v>
       </c>
       <c r="R5">
-        <v>0.9132695679752719</v>
+        <v>0.9205526273067621</v>
       </c>
       <c r="S5">
-        <v>0.9205526273067621</v>
+        <v>0.9323430521776144</v>
       </c>
       <c r="T5">
-        <v>0.9323430521776144</v>
+        <v>0.9323547095412726</v>
       </c>
       <c r="U5">
-        <v>0.9323547095412726</v>
+        <v>0.9434710258195829</v>
       </c>
       <c r="V5">
-        <v>0.9434710258195829</v>
+        <v>0.9452966397302345</v>
       </c>
       <c r="W5">
-        <v>0.9452966397302345</v>
+        <v>0.9472496526191116</v>
       </c>
       <c r="X5">
-        <v>0.9472496526191116</v>
+        <v>0.965568026498087</v>
       </c>
       <c r="Y5">
-        <v>0.965568026498087</v>
+        <v>0.9752313738254622</v>
       </c>
       <c r="Z5">
         <v>0.9752313738254622</v>
       </c>
       <c r="AA5">
-        <v>0.9752313738254622</v>
+        <v>0.9850070355007643</v>
       </c>
       <c r="AB5">
-        <v>0.9850070355007643</v>
+        <v>0.9936557014715166</v>
       </c>
       <c r="AC5">
         <v>0.9936557014715166</v>
@@ -2323,7 +2275,7 @@
         <v>0.9936557014715166</v>
       </c>
       <c r="AE5">
-        <v>0.9936557014715166</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -2337,13 +2289,10 @@
       <c r="AI5">
         <v>1</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2352,31 +2301,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.3417535508311725</v>
       </c>
       <c r="E6">
-        <v>0.3417535508311725</v>
+        <v>0.3582850627069767</v>
       </c>
       <c r="F6">
-        <v>0.3582850627069767</v>
+        <v>0.7235009004223767</v>
       </c>
       <c r="G6">
-        <v>0.7235009004223767</v>
+        <v>0.7502033777822814</v>
       </c>
       <c r="H6">
         <v>0.7502033777822814</v>
       </c>
       <c r="I6">
-        <v>0.7502033777822814</v>
+        <v>0.7526645799633986</v>
       </c>
       <c r="J6">
-        <v>0.7526645799633986</v>
+        <v>0.7752729278449795</v>
       </c>
       <c r="K6">
-        <v>0.7752729278449795</v>
+        <v>0.894069406647334</v>
       </c>
       <c r="L6">
-        <v>0.894069406647334</v>
+        <v>0.953796213665874</v>
       </c>
       <c r="M6">
         <v>0.953796213665874</v>
@@ -2385,22 +2334,22 @@
         <v>0.953796213665874</v>
       </c>
       <c r="O6">
-        <v>0.953796213665874</v>
+        <v>0.9542367703122993</v>
       </c>
       <c r="P6">
-        <v>0.9542367703122993</v>
+        <v>0.9553227785032804</v>
       </c>
       <c r="Q6">
         <v>0.9553227785032804</v>
       </c>
       <c r="R6">
-        <v>0.9553227785032804</v>
+        <v>0.9692832674362467</v>
       </c>
       <c r="S6">
         <v>0.9692832674362467</v>
       </c>
       <c r="T6">
-        <v>0.9692832674362467</v>
+        <v>0.9739017278000466</v>
       </c>
       <c r="U6">
         <v>0.9739017278000466</v>
@@ -2409,7 +2358,7 @@
         <v>0.9739017278000466</v>
       </c>
       <c r="W6">
-        <v>0.9739017278000466</v>
+        <v>0.9890621525928547</v>
       </c>
       <c r="X6">
         <v>0.9890621525928547</v>
@@ -2421,7 +2370,7 @@
         <v>0.9890621525928547</v>
       </c>
       <c r="AA6">
-        <v>0.9890621525928547</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -2447,13 +2396,10 @@
       <c r="AI6">
         <v>1</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2462,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2658173548232608</v>
       </c>
       <c r="E7">
         <v>0.2658173548232608</v>
       </c>
       <c r="F7">
-        <v>0.2658173548232608</v>
+        <v>0.6890047682773823</v>
       </c>
       <c r="G7">
-        <v>0.6890047682773823</v>
+        <v>0.7940163923309195</v>
       </c>
       <c r="H7">
         <v>0.7940163923309195</v>
@@ -2480,16 +2426,16 @@
         <v>0.7940163923309195</v>
       </c>
       <c r="J7">
-        <v>0.7940163923309195</v>
+        <v>0.8221519675122622</v>
       </c>
       <c r="K7">
-        <v>0.8221519675122622</v>
+        <v>0.8377290508531294</v>
       </c>
       <c r="L7">
-        <v>0.8377290508531294</v>
+        <v>0.8526022130651416</v>
       </c>
       <c r="M7">
-        <v>0.8526022130651416</v>
+        <v>0.9320639840890442</v>
       </c>
       <c r="N7">
         <v>0.9320639840890442</v>
@@ -2498,13 +2444,13 @@
         <v>0.9320639840890442</v>
       </c>
       <c r="P7">
-        <v>0.9320639840890442</v>
+        <v>0.9369677288723109</v>
       </c>
       <c r="Q7">
         <v>0.9369677288723109</v>
       </c>
       <c r="R7">
-        <v>0.9369677288723109</v>
+        <v>0.9512347169111999</v>
       </c>
       <c r="S7">
         <v>0.9512347169111999</v>
@@ -2513,7 +2459,7 @@
         <v>0.9512347169111999</v>
       </c>
       <c r="U7">
-        <v>0.9512347169111999</v>
+        <v>0.962719138624655</v>
       </c>
       <c r="V7">
         <v>0.962719138624655</v>
@@ -2522,7 +2468,7 @@
         <v>0.962719138624655</v>
       </c>
       <c r="X7">
-        <v>0.962719138624655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y7">
         <v>0.9999999999999999</v>
@@ -2557,234 +2503,225 @@
       <c r="AI7">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ7">
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.351370547656304</v>
+      </c>
+      <c r="E8">
+        <v>0.3553627150034264</v>
+      </c>
+      <c r="F8">
+        <v>0.6607677265419207</v>
+      </c>
+      <c r="G8">
+        <v>0.7289265648803985</v>
+      </c>
+      <c r="H8">
+        <v>0.7289265648803985</v>
+      </c>
+      <c r="I8">
+        <v>0.7289265648803985</v>
+      </c>
+      <c r="J8">
+        <v>0.7785080771350424</v>
+      </c>
+      <c r="K8">
+        <v>0.8071744162738216</v>
+      </c>
+      <c r="L8">
+        <v>0.8820983349199856</v>
+      </c>
+      <c r="M8">
+        <v>0.8899090007384121</v>
+      </c>
+      <c r="N8">
+        <v>0.8899090007384121</v>
+      </c>
+      <c r="O8">
+        <v>0.9093036767768491</v>
+      </c>
+      <c r="P8">
+        <v>0.9093036767768491</v>
+      </c>
+      <c r="Q8">
+        <v>0.9511464246495653</v>
+      </c>
+      <c r="R8">
+        <v>0.9511464246495653</v>
+      </c>
+      <c r="S8">
+        <v>0.9511464246495653</v>
+      </c>
+      <c r="T8">
+        <v>0.9511464246495653</v>
+      </c>
+      <c r="U8">
+        <v>0.9517646328171656</v>
+      </c>
+      <c r="V8">
+        <v>0.9517646328171656</v>
+      </c>
+      <c r="W8">
+        <v>0.9657456442496425</v>
+      </c>
+      <c r="X8">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="1" t="s">
+      <c r="Y8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AD8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.3777573892636171</v>
-      </c>
-      <c r="F8">
-        <v>0.3777573892636171</v>
-      </c>
-      <c r="G8">
-        <v>0.7049738922424958</v>
-      </c>
-      <c r="H8">
-        <v>0.7713290440025101</v>
-      </c>
-      <c r="I8">
-        <v>0.7713290440025101</v>
-      </c>
-      <c r="J8">
-        <v>0.7713290440025101</v>
-      </c>
-      <c r="K8">
-        <v>0.8172577066061462</v>
-      </c>
-      <c r="L8">
-        <v>0.8401893267437647</v>
-      </c>
-      <c r="M8">
-        <v>0.9139829461779417</v>
-      </c>
-      <c r="N8">
-        <v>0.9139829461779417</v>
-      </c>
-      <c r="O8">
-        <v>0.9139829461779417</v>
-      </c>
-      <c r="P8">
-        <v>0.9267200138311994</v>
-      </c>
-      <c r="Q8">
-        <v>0.9267200138311994</v>
-      </c>
-      <c r="R8">
-        <v>0.9641396054297908</v>
-      </c>
-      <c r="S8">
-        <v>0.9641396054297908</v>
-      </c>
-      <c r="T8">
-        <v>0.9641396054297908</v>
-      </c>
-      <c r="U8">
-        <v>0.9641396054297908</v>
-      </c>
-      <c r="V8">
-        <v>0.9641396054297908</v>
-      </c>
-      <c r="W8">
-        <v>0.9641396054297908</v>
-      </c>
-      <c r="X8">
-        <v>0.9709241392861561</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.09818827704361525</v>
+      </c>
+      <c r="E9">
+        <v>0.130529211134742</v>
+      </c>
+      <c r="F9">
+        <v>0.254482939986662</v>
+      </c>
+      <c r="G9">
+        <v>0.3807124198024329</v>
+      </c>
+      <c r="H9">
+        <v>0.5599820076179036</v>
+      </c>
+      <c r="I9">
+        <v>0.5847460787718621</v>
+      </c>
+      <c r="J9">
+        <v>0.5978941292182711</v>
+      </c>
+      <c r="K9">
+        <v>0.5978941292182711</v>
+      </c>
+      <c r="L9">
+        <v>0.6267363351123181</v>
+      </c>
+      <c r="M9">
+        <v>0.8164274356030941</v>
+      </c>
+      <c r="N9">
+        <v>0.8164274356030941</v>
+      </c>
+      <c r="O9">
+        <v>0.8339412757373019</v>
+      </c>
+      <c r="P9">
+        <v>0.8881432800429262</v>
+      </c>
+      <c r="Q9">
+        <v>0.902108566099399</v>
+      </c>
+      <c r="R9">
+        <v>0.902108566099399</v>
+      </c>
+      <c r="S9">
+        <v>0.902108566099399</v>
+      </c>
+      <c r="T9">
+        <v>0.9046764503849348</v>
+      </c>
+      <c r="U9">
+        <v>0.9046764503849348</v>
+      </c>
+      <c r="V9">
+        <v>0.9046764503849348</v>
+      </c>
+      <c r="W9">
+        <v>0.9484023798453382</v>
+      </c>
+      <c r="X9">
+        <v>0.9581395997417794</v>
+      </c>
+      <c r="Y9">
+        <v>0.9581395997417794</v>
+      </c>
+      <c r="Z9">
+        <v>0.9692359664375622</v>
+      </c>
+      <c r="AA9">
+        <v>0.9692359664375622</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.1077155664586609</v>
-      </c>
-      <c r="F9">
-        <v>0.1312167899832433</v>
-      </c>
-      <c r="G9">
-        <v>0.2718846442206482</v>
-      </c>
-      <c r="H9">
-        <v>0.4154630315716</v>
-      </c>
-      <c r="I9">
-        <v>0.6268761658396781</v>
-      </c>
-      <c r="J9">
-        <v>0.6406870889642033</v>
-      </c>
-      <c r="K9">
-        <v>0.6406870889642033</v>
-      </c>
-      <c r="L9">
-        <v>0.6406870889642033</v>
-      </c>
-      <c r="M9">
-        <v>0.6597136733763981</v>
-      </c>
-      <c r="N9">
-        <v>0.8844552246006965</v>
-      </c>
-      <c r="O9">
-        <v>0.8844552246006965</v>
-      </c>
-      <c r="P9">
-        <v>0.8889935876784311</v>
-      </c>
-      <c r="Q9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="R9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="S9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="T9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="U9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="V9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="W9">
-        <v>0.9404536563348213</v>
-      </c>
-      <c r="X9">
-        <v>0.9785155266727907</v>
-      </c>
-      <c r="Y9">
-        <v>0.9785155266727907</v>
-      </c>
-      <c r="Z9">
-        <v>0.9785155266727907</v>
-      </c>
-      <c r="AA9">
-        <v>0.9785155266727907</v>
-      </c>
-      <c r="AB9">
-        <v>0.9785155266727907</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -2792,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.315941936158867</v>
       </c>
       <c r="E10">
-        <v>0.315941936158867</v>
+        <v>0.4824495597564109</v>
       </c>
       <c r="F10">
-        <v>0.4824495597564109</v>
+        <v>0.7523717236101901</v>
       </c>
       <c r="G10">
-        <v>0.7523717236101901</v>
+        <v>0.7663164480601241</v>
       </c>
       <c r="H10">
         <v>0.7663164480601241</v>
@@ -2810,13 +2747,13 @@
         <v>0.7663164480601241</v>
       </c>
       <c r="J10">
-        <v>0.7663164480601241</v>
+        <v>0.8313509251506185</v>
       </c>
       <c r="K10">
         <v>0.8313509251506185</v>
       </c>
       <c r="L10">
-        <v>0.8313509251506185</v>
+        <v>0.8947403992964146</v>
       </c>
       <c r="M10">
         <v>0.8947403992964146</v>
@@ -2825,13 +2762,13 @@
         <v>0.8947403992964146</v>
       </c>
       <c r="O10">
-        <v>0.8947403992964146</v>
+        <v>0.919213056055643</v>
       </c>
       <c r="P10">
         <v>0.919213056055643</v>
       </c>
       <c r="Q10">
-        <v>0.919213056055643</v>
+        <v>0.9628074240845176</v>
       </c>
       <c r="R10">
         <v>0.9628074240845176</v>
@@ -2840,7 +2777,7 @@
         <v>0.9628074240845176</v>
       </c>
       <c r="T10">
-        <v>0.9628074240845176</v>
+        <v>0.9654042567705613</v>
       </c>
       <c r="U10">
         <v>0.9654042567705613</v>
@@ -2849,7 +2786,7 @@
         <v>0.9654042567705613</v>
       </c>
       <c r="W10">
-        <v>0.9654042567705613</v>
+        <v>0.99440902313192</v>
       </c>
       <c r="X10">
         <v>0.99440902313192</v>
@@ -2861,7 +2798,7 @@
         <v>0.99440902313192</v>
       </c>
       <c r="AA10">
-        <v>0.99440902313192</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>1</v>
@@ -2887,13 +2824,10 @@
       <c r="AI10">
         <v>1</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2902,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3451730267012569</v>
       </c>
       <c r="E11">
         <v>0.3451730267012569</v>
       </c>
       <c r="F11">
-        <v>0.3451730267012569</v>
+        <v>0.7492276671255818</v>
       </c>
       <c r="G11">
-        <v>0.7492276671255818</v>
+        <v>0.7819755356073538</v>
       </c>
       <c r="H11">
         <v>0.7819755356073538</v>
@@ -2920,16 +2854,16 @@
         <v>0.7819755356073538</v>
       </c>
       <c r="J11">
-        <v>0.7819755356073538</v>
+        <v>0.8056803954535963</v>
       </c>
       <c r="K11">
-        <v>0.8056803954535963</v>
+        <v>0.8328001801890443</v>
       </c>
       <c r="L11">
         <v>0.8328001801890443</v>
       </c>
       <c r="M11">
-        <v>0.8328001801890443</v>
+        <v>0.9241424819301529</v>
       </c>
       <c r="N11">
         <v>0.9241424819301529</v>
@@ -2941,10 +2875,10 @@
         <v>0.9241424819301529</v>
       </c>
       <c r="Q11">
-        <v>0.9241424819301529</v>
+        <v>0.9315642748170979</v>
       </c>
       <c r="R11">
-        <v>0.9315642748170979</v>
+        <v>0.9381294372730028</v>
       </c>
       <c r="S11">
         <v>0.9381294372730028</v>
@@ -2953,7 +2887,7 @@
         <v>0.9381294372730028</v>
       </c>
       <c r="U11">
-        <v>0.9381294372730028</v>
+        <v>0.9558397461289855</v>
       </c>
       <c r="V11">
         <v>0.9558397461289855</v>
@@ -2962,7 +2896,7 @@
         <v>0.9558397461289855</v>
       </c>
       <c r="X11">
-        <v>0.9558397461289855</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y11">
         <v>0.9999999999999999</v>
@@ -2995,9 +2929,6 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ11">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -3016,57 +2947,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3084,36 +3015,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6183256570083189</v>
+        <v>0.7067844272793047</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3125,36 +3056,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6685083761732786</v>
+        <v>0.6658695106129764</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3166,30 +3097,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3207,30 +3138,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3248,30 +3179,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3289,36 +3220,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7049738922424958</v>
+        <v>0.6607677265419207</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3330,36 +3261,36 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6268761658396781</v>
+        <v>0.5599820076179036</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3371,30 +3302,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3412,30 +3343,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3453,16 +3384,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3480,57 +3411,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3548,39 +3479,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7523621135195646</v>
+        <v>0.7067844272793047</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -3589,36 +3520,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7621199369354471</v>
+        <v>0.7602262736849038</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3630,30 +3561,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3671,30 +3602,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3712,30 +3643,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3753,27 +3684,27 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3782,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7049738922424958</v>
+        <v>0.7289265648803985</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -3794,36 +3725,36 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8844552246006965</v>
+        <v>0.8164274356030941</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -3835,30 +3766,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3876,30 +3807,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3917,16 +3848,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3944,57 +3875,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4012,39 +3943,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8436112477965524</v>
+        <v>0.8304013128731792</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -4053,36 +3984,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8781684574269489</v>
+        <v>0.8771986076969824</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -4094,30 +4025,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4135,30 +4066,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4176,30 +4107,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4217,27 +4148,27 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4246,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8172577066061462</v>
+        <v>0.8071744162738216</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -4258,36 +4189,36 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8844552246006965</v>
+        <v>0.8164274356030941</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -4299,30 +4230,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4340,30 +4271,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4381,16 +4312,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4408,57 +4339,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4476,39 +4407,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9205428316687569</v>
+        <v>0.9150564379273055</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -4517,36 +4448,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9152154854678221</v>
+        <v>0.9145405515649285</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -4558,30 +4489,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4599,30 +4530,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4640,30 +4571,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4681,39 +4612,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9139829461779417</v>
+        <v>0.9093036767768491</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -4722,27 +4653,27 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -4751,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9404536563348213</v>
+        <v>0.902108566099399</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>18</v>
@@ -4763,30 +4694,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4804,30 +4735,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4845,16 +4776,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/18_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/18_245-70R19.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -156,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>245-70R19.5</t>
@@ -199,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -559,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -671,10 +674,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -683,67 +689,67 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1168300517728939</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006412139575184506</v>
+        <v>0.1298843247309374</v>
       </c>
       <c r="F2">
-        <v>0.4041077969875829</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1451202214162442</v>
+        <v>0.5530995490636007</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1715611712373456</v>
       </c>
       <c r="I2">
-        <v>0.02146111523365722</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0305555806505063</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.07855720908722658</v>
+        <v>0.002785479594303489</v>
       </c>
       <c r="L2">
-        <v>0.02131905493347852</v>
+        <v>0.07350108595635516</v>
       </c>
       <c r="M2">
-        <v>0.07514062631799263</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06846780416819621</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001277348577635797</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01311887939331983</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.02914035805921379</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0007005852492615125</v>
       </c>
       <c r="U2">
-        <v>0.003194849288557902</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.004674751752927405</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.006395915891231194</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -752,25 +758,25 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.02767578114371792</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.002992306233381891</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.001511697728292608</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.005718920546032767</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.00479539541092202</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -778,10 +784,13 @@
       <c r="AI2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -790,37 +799,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2984477524187038</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.3477259025743924</v>
       </c>
       <c r="F3">
-        <v>0.4083366748606009</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.05309181348126849</v>
+        <v>0.4855303309980244</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.04004124997900309</v>
       </c>
       <c r="I3">
-        <v>0.0001866603046792884</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07033841180792676</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03535940469382962</v>
+        <v>0.0616690680687996</v>
       </c>
       <c r="L3">
-        <v>0.04929572036029672</v>
+        <v>0.01780420912696236</v>
       </c>
       <c r="M3">
-        <v>0.0306898412795678</v>
+        <v>0.03528082070957431</v>
       </c>
       <c r="N3">
-        <v>0.01226133740285859</v>
+        <v>0.01194841854324369</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -829,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01292263209725137</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -841,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.006752777121237753</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001958848343415288</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.009421917273108369</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01093620855525485</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -885,10 +894,13 @@
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -897,37 +909,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2381974974957827</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2021302503514406</v>
+        <v>0.2960155349943847</v>
       </c>
       <c r="F4">
-        <v>0.2255417627657531</v>
+        <v>0.2449547598587216</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2780986803300826</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003756644428385034</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09398109862908892</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02494272756437084</v>
+        <v>0.09184688624952142</v>
       </c>
       <c r="L4">
-        <v>0.09202960644770773</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08908413856728971</v>
       </c>
       <c r="N4">
-        <v>0.01660718890178832</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -936,37 +948,37 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02073475496615777</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.005116866546017507</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02031166929989027</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002663674728183738</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>4.849526425591153E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.02666736204446394</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01250888569046048</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.007698909037521884</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.008875576700804747</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -981,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0007317097256447208</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0008362993978283474</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -992,10 +1004,13 @@
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1004,79 +1019,79 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0657680957108055</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09645068737257369</v>
+        <v>0.05275051694014894</v>
       </c>
       <c r="F5">
-        <v>0.2501930586995653</v>
+        <v>0.09714453584964632</v>
       </c>
       <c r="G5">
-        <v>0.2444474195238526</v>
+        <v>0.3195912514048377</v>
       </c>
       <c r="H5">
-        <v>0.005391521636538587</v>
+        <v>0.3112780027384426</v>
       </c>
       <c r="I5">
-        <v>0.003002378502997111</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.08947044524587487</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04494872294347601</v>
+        <v>0.08704496524030753</v>
       </c>
       <c r="M5">
-        <v>0.105033849343132</v>
+        <v>0.02262738919053442</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1095633386360823</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.008563388996456403</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.007283059331490171</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01179042487085229</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.165736365832169E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01111631627831025</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001825613910651589</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001953012888877196</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01831837387897536</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.009663347327375161</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.009775661675302055</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.008648665970752298</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1085,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.006344298528483383</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1099,10 +1114,13 @@
       <c r="AI5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1111,55 +1129,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3417535508311725</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01653151187580416</v>
+        <v>0.4015963011722086</v>
       </c>
       <c r="F6">
-        <v>0.3652158377154001</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.02670247735990473</v>
+        <v>0.4312854358379098</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002931252320977389</v>
       </c>
       <c r="I6">
-        <v>0.002461202181117225</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02260834788158081</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1187964788023546</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05972680701853995</v>
+        <v>0.1194668323443476</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04472017832455651</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0004405566464252768</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001086008190981154</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01396048893296626</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.004618460363799845</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1168,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01516042479280813</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1180,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01093784740714531</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1206,10 +1224,13 @@
       <c r="AI6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1218,49 +1239,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2658173548232608</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.2949947289774072</v>
       </c>
       <c r="F7">
-        <v>0.4231874134541215</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1050116240535372</v>
+        <v>0.4799392110616548</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1060125753699904</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02813557518134273</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01557708334086728</v>
+        <v>0.01566628480463147</v>
       </c>
       <c r="L7">
-        <v>0.01487316221201221</v>
+        <v>0.0009072906897210505</v>
       </c>
       <c r="M7">
-        <v>0.0794617710239026</v>
+        <v>8.002831378436592E-05</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.07598587030928729</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.004903744783266766</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01426698803888891</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1269,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.01148442171345514</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1278,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.03728086137534491</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.02641401047352356</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1313,10 +1334,13 @@
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1325,49 +1349,49 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.351370547656304</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.00399216734712245</v>
+        <v>0.4291215359149572</v>
       </c>
       <c r="F8">
-        <v>0.3054050115384943</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.06815883833847776</v>
+        <v>0.368891453035238</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.05802035521730759</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04958151225464386</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02866633913877917</v>
+        <v>0.03367790249696707</v>
       </c>
       <c r="L8">
-        <v>0.07492391864616396</v>
+        <v>0.00627209552490137</v>
       </c>
       <c r="M8">
-        <v>0.007810665818426465</v>
+        <v>0.06688485201281048</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01939467603843708</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.04184274787271625</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.02353755693642605</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1376,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0006182081676003297</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01398101143247691</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.03425435575035741</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.01359424886139209</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1420,10 +1444,13 @@
       <c r="AI8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1432,46 +1459,46 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09818827704361525</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03234093409112676</v>
+        <v>0.1118906097368574</v>
       </c>
       <c r="F9">
-        <v>0.12395372885192</v>
+        <v>0.007041606852316688</v>
       </c>
       <c r="G9">
-        <v>0.1262294798157709</v>
+        <v>0.1529170477044405</v>
       </c>
       <c r="H9">
-        <v>0.1792695878154707</v>
+        <v>0.1565407355963797</v>
       </c>
       <c r="I9">
-        <v>0.02476407115395849</v>
+        <v>0.2409967240585034</v>
       </c>
       <c r="J9">
-        <v>0.01314805044640896</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.02884220589404693</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1896911004907759</v>
+        <v>0.001470567135611099</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2575909428008265</v>
       </c>
       <c r="O9">
-        <v>0.01751384013420789</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.05420200430562425</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.01396528605647288</v>
+        <v>0.04185108148264226</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1480,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.002567884285535827</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1489,25 +1516,25 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.04372592946040336</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.009737219896441314</v>
+        <v>0.02516998316622616</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01109636669578272</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03076403356243795</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.004530701466196189</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1527,10 +1554,13 @@
       <c r="AI9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1539,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.315941936158867</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1665076235975439</v>
+        <v>0.3742389597263538</v>
       </c>
       <c r="F10">
-        <v>0.2699221638537792</v>
+        <v>0.1818729441191559</v>
       </c>
       <c r="G10">
-        <v>0.01394472444993394</v>
+        <v>0.3149979454924417</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1557,37 +1587,37 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0650344770904944</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05124708885130232</v>
       </c>
       <c r="L10">
-        <v>0.06338947414579611</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0491294850914305</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02447265675922843</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.04359436802887463</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.02364734764276915</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.002596832686043667</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1596,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.02900476636135876</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.004866229076546657</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1608,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.005590976868080065</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1634,10 +1664,13 @@
       <c r="AI10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1646,37 +1679,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3451730267012569</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.3664988435827519</v>
       </c>
       <c r="F11">
-        <v>0.4040546404243249</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.03274786848177207</v>
+        <v>0.4305748717218995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0265121828298293</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02370485984624245</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.02711978473544803</v>
+        <v>0.0166714186395343</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.02038760115319539</v>
       </c>
       <c r="M11">
-        <v>0.09134230174110854</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09027569603754819</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1685,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.00742179288694499</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.006565162455904903</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1697,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.01771030885598272</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.01014804073518593</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.04416025387101444</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.03893134530005565</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1739,6 +1772,9 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>0</v>
       </c>
     </row>
@@ -1749,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1861,10 +1897,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1873,91 +1912,91 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1168300517728939</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1232421913480784</v>
+        <v>0.1298843247309374</v>
       </c>
       <c r="F2">
-        <v>0.5273499883356613</v>
+        <v>0.1298843247309374</v>
       </c>
       <c r="G2">
-        <v>0.6724702097519055</v>
+        <v>0.6829838737945382</v>
       </c>
       <c r="H2">
-        <v>0.6724702097519055</v>
+        <v>0.8545450450318838</v>
       </c>
       <c r="I2">
-        <v>0.6939313249855628</v>
+        <v>0.8545450450318838</v>
       </c>
       <c r="J2">
-        <v>0.7244869056360691</v>
+        <v>0.8545450450318838</v>
       </c>
       <c r="K2">
-        <v>0.8030441147232956</v>
+        <v>0.8573305246261873</v>
       </c>
       <c r="L2">
-        <v>0.8243631696567741</v>
+        <v>0.9308316105825425</v>
       </c>
       <c r="M2">
-        <v>0.8995037959747668</v>
+        <v>0.9308316105825425</v>
       </c>
       <c r="N2">
-        <v>0.8995037959747668</v>
+        <v>0.9992994147507387</v>
       </c>
       <c r="O2">
-        <v>0.8995037959747668</v>
+        <v>0.9992994147507387</v>
       </c>
       <c r="P2">
-        <v>0.9007811445524027</v>
+        <v>0.9992994147507387</v>
       </c>
       <c r="Q2">
-        <v>0.9139000239457225</v>
+        <v>0.9992994147507387</v>
       </c>
       <c r="R2">
-        <v>0.9139000239457225</v>
+        <v>0.9992994147507387</v>
       </c>
       <c r="S2">
-        <v>0.9430403820049362</v>
+        <v>0.9992994147507387</v>
       </c>
       <c r="T2">
-        <v>0.9430403820049362</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.9462352312934942</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9462352312934942</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9509099830464216</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9573058989376528</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9573058989376528</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9573058989376528</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9849816800813708</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9879739863147526</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9894856840430453</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9894856840430453</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.995204604589078</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.995204604589078</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -1968,10 +2007,13 @@
       <c r="AI2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1980,73 +2022,73 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2984477524187038</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2984477524187038</v>
+        <v>0.3477259025743924</v>
       </c>
       <c r="F3">
-        <v>0.7067844272793047</v>
+        <v>0.3477259025743924</v>
       </c>
       <c r="G3">
-        <v>0.7598762407605731</v>
+        <v>0.8332562335724167</v>
       </c>
       <c r="H3">
-        <v>0.7598762407605731</v>
+        <v>0.8732974835514198</v>
       </c>
       <c r="I3">
-        <v>0.7600629010652524</v>
+        <v>0.8732974835514198</v>
       </c>
       <c r="J3">
-        <v>0.8304013128731792</v>
+        <v>0.8732974835514198</v>
       </c>
       <c r="K3">
-        <v>0.8657607175670088</v>
+        <v>0.9349665516202194</v>
       </c>
       <c r="L3">
-        <v>0.9150564379273055</v>
+        <v>0.9527707607471817</v>
       </c>
       <c r="M3">
-        <v>0.9457462792068733</v>
+        <v>0.988051581456756</v>
       </c>
       <c r="N3">
-        <v>0.9580076166097319</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>0.9580076166097319</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="P3">
-        <v>0.9580076166097319</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Q3">
-        <v>0.9709302487069833</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="R3">
-        <v>0.9709302487069833</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="S3">
-        <v>0.9709302487069833</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="T3">
-        <v>0.9709302487069833</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="U3">
-        <v>0.9776830258282211</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="V3">
-        <v>0.9776830258282211</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="W3">
-        <v>0.9796418741716364</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="X3">
-        <v>0.9890637914447448</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Y3">
-        <v>0.9890637914447448</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Z3">
-        <v>0.9890637914447448</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AA3">
         <v>0.9999999999999997</v>
@@ -2075,10 +2117,13 @@
       <c r="AI3">
         <v>0.9999999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2087,91 +2132,91 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2381974974957827</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4403277478472233</v>
+        <v>0.2960155349943847</v>
       </c>
       <c r="F4">
-        <v>0.6658695106129764</v>
+        <v>0.5409702948531063</v>
       </c>
       <c r="G4">
-        <v>0.6658695106129764</v>
+        <v>0.8190689751831889</v>
       </c>
       <c r="H4">
-        <v>0.6658695106129764</v>
+        <v>0.8190689751831889</v>
       </c>
       <c r="I4">
-        <v>0.6662451750558149</v>
+        <v>0.8190689751831889</v>
       </c>
       <c r="J4">
-        <v>0.7602262736849038</v>
+        <v>0.8190689751831889</v>
       </c>
       <c r="K4">
-        <v>0.7851690012492747</v>
+        <v>0.9109158614327103</v>
       </c>
       <c r="L4">
-        <v>0.8771986076969824</v>
+        <v>0.9109158614327103</v>
       </c>
       <c r="M4">
-        <v>0.8771986076969824</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.8938057965987708</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.8938057965987708</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.8938057965987708</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9145405515649285</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.919657418110946</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.919657418110946</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.9399690874108363</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.94263276213902</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9426812574032759</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9693486194477399</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9818575051382004</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9818575051382004</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9895564141757223</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.998431990876527</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.998431990876527</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.998431990876527</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.998431990876527</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.998431990876527</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9991637006021717</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -2182,10 +2227,13 @@
       <c r="AI4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2194,105 +2242,108 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0657680957108055</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1622187830833792</v>
+        <v>0.05275051694014894</v>
       </c>
       <c r="F5">
-        <v>0.4124118417829444</v>
+        <v>0.1498950527897953</v>
       </c>
       <c r="G5">
-        <v>0.6568592613067971</v>
+        <v>0.4694863041946329</v>
       </c>
       <c r="H5">
-        <v>0.6622507829433356</v>
+        <v>0.7807643069330756</v>
       </c>
       <c r="I5">
-        <v>0.6652531614463327</v>
+        <v>0.7807643069330756</v>
       </c>
       <c r="J5">
-        <v>0.6652531614463327</v>
+        <v>0.7807643069330756</v>
       </c>
       <c r="K5">
-        <v>0.7547236066922076</v>
+        <v>0.7807643069330756</v>
       </c>
       <c r="L5">
-        <v>0.7996723296356836</v>
+        <v>0.8678092721733832</v>
       </c>
       <c r="M5">
-        <v>0.9047061789788156</v>
+        <v>0.8904366613639176</v>
       </c>
       <c r="N5">
-        <v>0.9047061789788156</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O5">
-        <v>0.9047061789788156</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P5">
-        <v>0.9132695679752719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.9132695679752719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R5">
-        <v>0.9205526273067621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S5">
-        <v>0.9323430521776144</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T5">
-        <v>0.9323547095412726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U5">
-        <v>0.9434710258195829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V5">
-        <v>0.9452966397302345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W5">
-        <v>0.9472496526191116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X5">
-        <v>0.965568026498087</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.9752313738254622</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.9752313738254622</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.9850070355007643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.9936557014715166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9936557014715166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.9936557014715166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2301,105 +2352,108 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3417535508311725</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3582850627069767</v>
+        <v>0.4015963011722086</v>
       </c>
       <c r="F6">
-        <v>0.7235009004223767</v>
+        <v>0.4015963011722086</v>
       </c>
       <c r="G6">
-        <v>0.7502033777822814</v>
+        <v>0.8328817370101184</v>
       </c>
       <c r="H6">
-        <v>0.7502033777822814</v>
+        <v>0.8358129893310957</v>
       </c>
       <c r="I6">
-        <v>0.7526645799633986</v>
+        <v>0.8358129893310957</v>
       </c>
       <c r="J6">
-        <v>0.7752729278449795</v>
+        <v>0.8358129893310957</v>
       </c>
       <c r="K6">
-        <v>0.894069406647334</v>
+        <v>0.8358129893310957</v>
       </c>
       <c r="L6">
-        <v>0.953796213665874</v>
+        <v>0.9552798216754433</v>
       </c>
       <c r="M6">
-        <v>0.953796213665874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N6">
-        <v>0.953796213665874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O6">
-        <v>0.9542367703122993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P6">
-        <v>0.9553227785032804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.9553227785032804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R6">
-        <v>0.9692832674362467</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S6">
-        <v>0.9692832674362467</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T6">
-        <v>0.9739017278000466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U6">
-        <v>0.9739017278000466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V6">
-        <v>0.9739017278000466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W6">
-        <v>0.9890621525928547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X6">
-        <v>0.9890621525928547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.9890621525928547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.9890621525928547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2408,105 +2462,108 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2658173548232608</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2658173548232608</v>
+        <v>0.2949947289774072</v>
       </c>
       <c r="F7">
-        <v>0.6890047682773823</v>
+        <v>0.2949947289774072</v>
       </c>
       <c r="G7">
-        <v>0.7940163923309195</v>
+        <v>0.774933940039062</v>
       </c>
       <c r="H7">
-        <v>0.7940163923309195</v>
+        <v>0.8809465154090524</v>
       </c>
       <c r="I7">
-        <v>0.7940163923309195</v>
+        <v>0.8809465154090524</v>
       </c>
       <c r="J7">
-        <v>0.8221519675122622</v>
+        <v>0.8809465154090524</v>
       </c>
       <c r="K7">
-        <v>0.8377290508531294</v>
+        <v>0.8966128002136839</v>
       </c>
       <c r="L7">
-        <v>0.8526022130651416</v>
+        <v>0.897520090903405</v>
       </c>
       <c r="M7">
-        <v>0.9320639840890442</v>
+        <v>0.8976001192171894</v>
       </c>
       <c r="N7">
-        <v>0.9320639840890442</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="O7">
-        <v>0.9320639840890442</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="P7">
-        <v>0.9369677288723109</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="Q7">
-        <v>0.9369677288723109</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="R7">
-        <v>0.9512347169111999</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="S7">
-        <v>0.9512347169111999</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="T7">
-        <v>0.9512347169111999</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="U7">
-        <v>0.962719138624655</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="V7">
-        <v>0.962719138624655</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="W7">
-        <v>0.962719138624655</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="X7">
-        <v>0.9999999999999999</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="Y7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2515,67 +2572,67 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.351370547656304</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3553627150034264</v>
+        <v>0.4291215359149572</v>
       </c>
       <c r="F8">
-        <v>0.6607677265419207</v>
+        <v>0.4291215359149572</v>
       </c>
       <c r="G8">
-        <v>0.7289265648803985</v>
+        <v>0.7980129889501952</v>
       </c>
       <c r="H8">
-        <v>0.7289265648803985</v>
+        <v>0.8560333441675029</v>
       </c>
       <c r="I8">
-        <v>0.7289265648803985</v>
+        <v>0.8560333441675029</v>
       </c>
       <c r="J8">
-        <v>0.7785080771350424</v>
+        <v>0.8560333441675029</v>
       </c>
       <c r="K8">
-        <v>0.8071744162738216</v>
+        <v>0.88971124666447</v>
       </c>
       <c r="L8">
-        <v>0.8820983349199856</v>
+        <v>0.8959833421893714</v>
       </c>
       <c r="M8">
-        <v>0.8899090007384121</v>
+        <v>0.9628681942021818</v>
       </c>
       <c r="N8">
-        <v>0.8899090007384121</v>
+        <v>0.9628681942021818</v>
       </c>
       <c r="O8">
-        <v>0.9093036767768491</v>
+        <v>0.9628681942021818</v>
       </c>
       <c r="P8">
-        <v>0.9093036767768491</v>
+        <v>0.9628681942021818</v>
       </c>
       <c r="Q8">
-        <v>0.9511464246495653</v>
+        <v>0.9628681942021818</v>
       </c>
       <c r="R8">
-        <v>0.9511464246495653</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="S8">
-        <v>0.9511464246495653</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="T8">
-        <v>0.9511464246495653</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="U8">
-        <v>0.9517646328171656</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="V8">
-        <v>0.9517646328171656</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="W8">
-        <v>0.9657456442496425</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="X8">
-        <v>0.9999999999999999</v>
+        <v>0.9864057511386078</v>
       </c>
       <c r="Y8">
         <v>0.9999999999999999</v>
@@ -2610,10 +2667,13 @@
       <c r="AI8">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2622,79 +2682,79 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09818827704361525</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.130529211134742</v>
+        <v>0.1118906097368574</v>
       </c>
       <c r="F9">
-        <v>0.254482939986662</v>
+        <v>0.1189322165891741</v>
       </c>
       <c r="G9">
-        <v>0.3807124198024329</v>
+        <v>0.2718492642936147</v>
       </c>
       <c r="H9">
-        <v>0.5599820076179036</v>
+        <v>0.4283899998899944</v>
       </c>
       <c r="I9">
-        <v>0.5847460787718621</v>
+        <v>0.6693867239484979</v>
       </c>
       <c r="J9">
-        <v>0.5978941292182711</v>
+        <v>0.6693867239484979</v>
       </c>
       <c r="K9">
-        <v>0.5978941292182711</v>
+        <v>0.6693867239484979</v>
       </c>
       <c r="L9">
-        <v>0.6267363351123181</v>
+        <v>0.6693867239484979</v>
       </c>
       <c r="M9">
-        <v>0.8164274356030941</v>
+        <v>0.670857291084109</v>
       </c>
       <c r="N9">
-        <v>0.8164274356030941</v>
+        <v>0.9284482338849355</v>
       </c>
       <c r="O9">
-        <v>0.8339412757373019</v>
+        <v>0.9284482338849355</v>
       </c>
       <c r="P9">
-        <v>0.8881432800429262</v>
+        <v>0.9284482338849355</v>
       </c>
       <c r="Q9">
-        <v>0.902108566099399</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="R9">
-        <v>0.902108566099399</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="S9">
-        <v>0.902108566099399</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="T9">
-        <v>0.9046764503849348</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="U9">
-        <v>0.9046764503849348</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="V9">
-        <v>0.9046764503849348</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="W9">
-        <v>0.9484023798453382</v>
+        <v>0.9702993153675777</v>
       </c>
       <c r="X9">
-        <v>0.9581395997417794</v>
+        <v>0.9954692985338039</v>
       </c>
       <c r="Y9">
-        <v>0.9581395997417794</v>
+        <v>0.9954692985338039</v>
       </c>
       <c r="Z9">
-        <v>0.9692359664375622</v>
+        <v>0.9954692985338039</v>
       </c>
       <c r="AA9">
-        <v>0.9692359664375622</v>
+        <v>0.9954692985338039</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.9954692985338039</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -2717,10 +2777,13 @@
       <c r="AI9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2729,73 +2792,73 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.315941936158867</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4824495597564109</v>
+        <v>0.3742389597263538</v>
       </c>
       <c r="F10">
-        <v>0.7523717236101901</v>
+        <v>0.5561119038455097</v>
       </c>
       <c r="G10">
-        <v>0.7663164480601241</v>
+        <v>0.8711098493379514</v>
       </c>
       <c r="H10">
-        <v>0.7663164480601241</v>
+        <v>0.8711098493379514</v>
       </c>
       <c r="I10">
-        <v>0.7663164480601241</v>
+        <v>0.8711098493379514</v>
       </c>
       <c r="J10">
-        <v>0.8313509251506185</v>
+        <v>0.8711098493379514</v>
       </c>
       <c r="K10">
-        <v>0.8313509251506185</v>
+        <v>0.9223569381892538</v>
       </c>
       <c r="L10">
-        <v>0.8947403992964146</v>
+        <v>0.9223569381892538</v>
       </c>
       <c r="M10">
-        <v>0.8947403992964146</v>
+        <v>0.9714864232806844</v>
       </c>
       <c r="N10">
-        <v>0.8947403992964146</v>
+        <v>0.9714864232806844</v>
       </c>
       <c r="O10">
-        <v>0.919213056055643</v>
+        <v>0.9714864232806844</v>
       </c>
       <c r="P10">
-        <v>0.919213056055643</v>
+        <v>0.9714864232806844</v>
       </c>
       <c r="Q10">
-        <v>0.9628074240845176</v>
+        <v>0.9714864232806844</v>
       </c>
       <c r="R10">
-        <v>0.9628074240845176</v>
+        <v>0.9951337709234535</v>
       </c>
       <c r="S10">
-        <v>0.9628074240845176</v>
+        <v>0.9951337709234535</v>
       </c>
       <c r="T10">
-        <v>0.9654042567705613</v>
+        <v>0.9951337709234535</v>
       </c>
       <c r="U10">
-        <v>0.9654042567705613</v>
+        <v>0.9951337709234535</v>
       </c>
       <c r="V10">
-        <v>0.9654042567705613</v>
+        <v>0.9951337709234535</v>
       </c>
       <c r="W10">
-        <v>0.99440902313192</v>
+        <v>0.9951337709234535</v>
       </c>
       <c r="X10">
-        <v>0.99440902313192</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.99440902313192</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.99440902313192</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -2824,10 +2887,13 @@
       <c r="AI10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2836,100 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3451730267012569</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3451730267012569</v>
+        <v>0.3664988435827519</v>
       </c>
       <c r="F11">
-        <v>0.7492276671255818</v>
+        <v>0.3664988435827519</v>
       </c>
       <c r="G11">
-        <v>0.7819755356073538</v>
+        <v>0.7970737153046513</v>
       </c>
       <c r="H11">
-        <v>0.7819755356073538</v>
+        <v>0.8235858981344806</v>
       </c>
       <c r="I11">
-        <v>0.7819755356073538</v>
+        <v>0.8235858981344806</v>
       </c>
       <c r="J11">
-        <v>0.8056803954535963</v>
+        <v>0.8235858981344806</v>
       </c>
       <c r="K11">
-        <v>0.8328001801890443</v>
+        <v>0.8402573167740148</v>
       </c>
       <c r="L11">
-        <v>0.8328001801890443</v>
+        <v>0.8606449179272102</v>
       </c>
       <c r="M11">
-        <v>0.9241424819301529</v>
+        <v>0.8606449179272102</v>
       </c>
       <c r="N11">
-        <v>0.9241424819301529</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="O11">
-        <v>0.9241424819301529</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="P11">
-        <v>0.9241424819301529</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="Q11">
-        <v>0.9315642748170979</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="R11">
-        <v>0.9381294372730028</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="S11">
-        <v>0.9381294372730028</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="T11">
-        <v>0.9381294372730028</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="U11">
-        <v>0.9558397461289855</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="V11">
-        <v>0.9558397461289855</v>
+        <v>0.9610686546999443</v>
       </c>
       <c r="W11">
-        <v>0.9558397461289855</v>
+        <v>0.9610686546999443</v>
       </c>
       <c r="X11">
-        <v>0.9999999999999999</v>
+        <v>0.9610686546999443</v>
       </c>
       <c r="Y11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2947,453 +3016,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6829838737945382</v>
       </c>
       <c r="F2">
-        <v>0.5273499883356613</v>
+        <v>6</v>
       </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8332562335724167</v>
       </c>
       <c r="F3">
-        <v>0.7067844272793047</v>
+        <v>6</v>
       </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.5409702948531063</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6658695106129764</v>
-      </c>
       <c r="G4">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7807643069330756</v>
       </c>
       <c r="F5">
-        <v>0.6568592613067971</v>
+        <v>7</v>
       </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8328817370101184</v>
       </c>
       <c r="F6">
-        <v>0.7235009004223767</v>
+        <v>6</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.774933940039062</v>
       </c>
       <c r="F7">
-        <v>0.6890047682773823</v>
+        <v>6</v>
       </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7980129889501952</v>
       </c>
       <c r="F8">
-        <v>0.6607677265419207</v>
+        <v>6</v>
       </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6693867239484979</v>
       </c>
       <c r="F9">
-        <v>0.5599820076179036</v>
+        <v>8</v>
       </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>18</v>
       </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.5561119038455097</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7523717236101901</v>
-      </c>
       <c r="G10">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7970737153046513</v>
       </c>
       <c r="F11">
-        <v>0.7492276671255818</v>
+        <v>6</v>
       </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>18</v>
       </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3411,453 +3480,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8545450450318838</v>
       </c>
       <c r="F2">
-        <v>0.7244869056360691</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8332562335724167</v>
       </c>
       <c r="F3">
-        <v>0.7067844272793047</v>
+        <v>6</v>
       </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8190689751831889</v>
       </c>
       <c r="F4">
-        <v>0.7602262736849038</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7807643069330756</v>
       </c>
       <c r="F5">
-        <v>0.7547236066922076</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8328817370101184</v>
       </c>
       <c r="F6">
-        <v>0.7235009004223767</v>
+        <v>6</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.774933940039062</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7940163923309195</v>
-      </c>
       <c r="G7">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7980129889501952</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7289265648803985</v>
-      </c>
       <c r="G8">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9284482338849355</v>
       </c>
       <c r="F9">
-        <v>0.8164274356030941</v>
+        <v>13</v>
       </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>18</v>
       </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8711098493379514</v>
       </c>
       <c r="F10">
-        <v>0.7523717236101901</v>
+        <v>6</v>
       </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7970737153046513</v>
       </c>
       <c r="F11">
-        <v>0.7492276671255818</v>
+        <v>6</v>
       </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>18</v>
       </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3875,453 +3944,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8545450450318838</v>
       </c>
       <c r="F2">
-        <v>0.8030441147232956</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8332562335724167</v>
       </c>
       <c r="F3">
-        <v>0.8304013128731792</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8190689751831889</v>
       </c>
       <c r="F4">
-        <v>0.8771986076969824</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8678092721733832</v>
       </c>
       <c r="F5">
-        <v>0.9047061789788156</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8328817370101184</v>
       </c>
       <c r="F6">
-        <v>0.894069406647334</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8809465154090524</v>
       </c>
       <c r="F7">
-        <v>0.8221519675122622</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8560333441675029</v>
       </c>
       <c r="F8">
-        <v>0.8071744162738216</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9284482338849355</v>
       </c>
       <c r="F9">
-        <v>0.8164274356030941</v>
+        <v>13</v>
       </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>18</v>
       </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8711098493379514</v>
       </c>
       <c r="F10">
-        <v>0.8313509251506185</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8235858981344806</v>
       </c>
       <c r="F11">
-        <v>0.8056803954535963</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>18</v>
       </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4339,453 +4408,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9308316105825425</v>
       </c>
       <c r="F2">
-        <v>0.9007811445524027</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9349665516202194</v>
       </c>
       <c r="F3">
-        <v>0.9150564379273055</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9109158614327103</v>
       </c>
       <c r="F4">
-        <v>0.9145405515649285</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
-        <v>0.9047061789788156</v>
+        <v>13</v>
       </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.9552798216754433</v>
+      </c>
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.953796213665874</v>
-      </c>
       <c r="G6">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9735859895264767</v>
       </c>
       <c r="F7">
-        <v>0.9320639840890442</v>
+        <v>13</v>
       </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9628681942021818</v>
       </c>
       <c r="F8">
-        <v>0.9093036767768491</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9284482338849355</v>
       </c>
       <c r="F9">
-        <v>0.902108566099399</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>18</v>
       </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9223569381892538</v>
       </c>
       <c r="F10">
-        <v>0.919213056055643</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9509206139647584</v>
       </c>
       <c r="F11">
-        <v>0.9241424819301529</v>
+        <v>13</v>
       </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>18</v>
       </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
